--- a/RS01SUM1/Omaha_Cal_Info_RS01SUM1_00001.xlsx
+++ b/RS01SUM1/Omaha_Cal_Info_RS01SUM1_00001.xlsx
@@ -1,65 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="24615" windowHeight="13740"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Moorings" sheetId="2" r:id="rId1"/>
-    <sheet name="Asset_Cal_Info" sheetId="1" r:id="rId2"/>
+    <sheet state="visible" name="Asset_Cal_Info" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Moorings" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Ref Des</t>
   </si>
   <si>
-    <t>Serial Number</t>
+    <t>Mooring Serial Number</t>
   </si>
   <si>
     <t>Deployment Number</t>
-  </si>
-  <si>
-    <t>Anchor Launch Date</t>
-  </si>
-  <si>
-    <t>Anchor Launch Time</t>
-  </si>
-  <si>
-    <t>Recover Date</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Water Depth</t>
-  </si>
-  <si>
-    <t>Cruise Number</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>RS01SUM1-LJ01B</t>
-  </si>
-  <si>
-    <t>SN0004</t>
-  </si>
-  <si>
-    <t>TN-313</t>
-  </si>
-  <si>
-    <t>Mooring Serial Number</t>
   </si>
   <si>
     <t>Sensor Serial Number</t>
@@ -72,6 +33,9 @@
   </si>
   <si>
     <t>RS01SUM1-LJ01B-05-OBSBBA101</t>
+  </si>
+  <si>
+    <t>SN0004</t>
   </si>
   <si>
     <t xml:space="preserve">T1077/T5CQ6 </t>
@@ -113,110 +77,122 @@
     <t>CC_lon</t>
   </si>
   <si>
-    <t>44° 34.151' N</t>
+    <t>RS01SUM1-MJ01B-12-ADCPSK101</t>
   </si>
   <si>
-    <t>125° 08.883' W</t>
+    <t>CC_scale_factor1</t>
+  </si>
+  <si>
+    <t>CC_scale_factor2</t>
+  </si>
+  <si>
+    <t>CC_scale_factor3</t>
+  </si>
+  <si>
+    <t>CC_scale_factor4</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Anchor Launch Date</t>
+  </si>
+  <si>
+    <t>Anchor Launch Time</t>
+  </si>
+  <si>
+    <t>Recover Date</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Water Depth</t>
+  </si>
+  <si>
+    <t>Cruise Number</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>RS01SUM1-LJ01B</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>44° 34' 09.06" N</t>
+  </si>
+  <si>
+    <t>125° 08' 52.98" W</t>
+  </si>
+  <si>
+    <t>TN-313</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="165" formatCode="D\-MMM\-YY"/>
+    <numFmt numFmtId="166" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF222222"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="8.0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color rgb="FF0070C0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color rgb="FF333333"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9.0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,7 +200,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -245,7 +221,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -258,7 +233,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -269,2735 +243,2591 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="86">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="81">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="4" max="4" width="22.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="64" t="s">
+      <c r="D1" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="66">
-        <v>1</v>
-      </c>
-      <c r="D2" s="67">
-        <v>41888</v>
-      </c>
-      <c r="E2" s="68">
+      <c r="C2" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="54">
+        <v>41888.0</v>
+      </c>
+      <c r="E2" s="55">
         <v>0.6866782407407408</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="69">
-        <v>776</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71">
-        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
-        <v>44.569183333333335</v>
-      </c>
-      <c r="M2" s="71">
-        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
-        <v>-125.14805</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="F2" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="57">
+        <v>776.0</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="46"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="5" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="40.86"/>
+    <col customWidth="1" min="5" max="5" width="28.14"/>
+    <col customWidth="1" min="6" max="6" width="59.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>299465.0</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="79" t="s">
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-    </row>
-    <row r="3" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="74">
-        <v>1</v>
-      </c>
-      <c r="D3" s="74" t="s">
+      <c r="B10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="23">
+        <v>10306.0</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-    </row>
-    <row r="4" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="F10" s="25">
+        <v>44.5691033333333</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="23">
+        <v>10306.0</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="74">
-        <v>1</v>
-      </c>
-      <c r="D4" s="74">
-        <v>299465</v>
-      </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-    </row>
-    <row r="5" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="F11" s="25">
+        <v>-125.147938333333</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="74">
-        <v>1</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="30">
+        <v>18975.0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="17">
+        <v>44.5698566666666</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>18975.0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-125.146831666666</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="30">
+        <v>18975.0</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-    </row>
-    <row r="6" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="F15" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="31">
+        <v>18975.0</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="74">
-        <v>1</v>
-      </c>
-      <c r="D6" s="74" t="s">
+      <c r="F16" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="30">
+        <v>18975.0</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-    </row>
-    <row r="7" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="F17" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="30">
+        <v>18975.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="74">
-        <v>1</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-    </row>
-    <row r="8" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="74">
-        <v>1</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-    </row>
-    <row r="9" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-    </row>
-    <row r="10" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="74">
-        <v>1</v>
-      </c>
-      <c r="D10" s="74">
-        <v>10306</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="76">
-        <v>44.569183333333335</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-    </row>
-    <row r="11" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="74">
-        <v>1</v>
-      </c>
-      <c r="D11" s="74">
-        <v>10306</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="77">
-        <v>-125.14805</v>
-      </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-    </row>
-    <row r="12" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-    </row>
-    <row r="13" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-    </row>
-    <row r="14" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-    </row>
-    <row r="15" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-    </row>
-    <row r="16" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-    </row>
-    <row r="17" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-    </row>
-    <row r="18" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-    </row>
-    <row r="19" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-    </row>
-    <row r="20" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-    </row>
-    <row r="21" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-    </row>
-    <row r="22" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-    </row>
-    <row r="23" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-    </row>
-    <row r="24" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-    </row>
-    <row r="25" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-    </row>
-    <row r="26" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-    </row>
-    <row r="27" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-    </row>
-    <row r="28" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-    </row>
-    <row r="29" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-    </row>
-    <row r="30" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-    </row>
-    <row r="31" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-    </row>
-    <row r="32" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-    </row>
-    <row r="33" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-    </row>
-    <row r="34" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-    </row>
-    <row r="35" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-    </row>
-    <row r="36" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-    </row>
-    <row r="37" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-    </row>
-    <row r="38" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-    </row>
-    <row r="39" spans="1:26" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-    </row>
-    <row r="40" spans="1:26" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
-      <c r="Z40" s="57"/>
-    </row>
-    <row r="41" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-    </row>
-    <row r="42" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="49"/>
-      <c r="Z42" s="49"/>
-    </row>
-    <row r="43" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-    </row>
-    <row r="44" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="49"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="49"/>
-      <c r="Z44" s="49"/>
-    </row>
-    <row r="45" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
-      <c r="V45" s="49"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="49"/>
-    </row>
-    <row r="46" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-    </row>
-    <row r="47" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
-    </row>
-    <row r="48" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="49"/>
-      <c r="W48" s="49"/>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-    </row>
-    <row r="49" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="49"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="49"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="49"/>
-      <c r="Z49" s="49"/>
-    </row>
-    <row r="50" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-    </row>
-    <row r="51" spans="1:26" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="51"/>
-      <c r="V51" s="51"/>
-      <c r="W51" s="51"/>
-      <c r="X51" s="51"/>
-      <c r="Y51" s="51"/>
-      <c r="Z51" s="51"/>
-    </row>
-    <row r="52" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="51"/>
-      <c r="Z52" s="51"/>
-    </row>
-    <row r="53" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="51"/>
-      <c r="X53" s="51"/>
-      <c r="Y53" s="51"/>
-      <c r="Z53" s="51"/>
-    </row>
-    <row r="54" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="51"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="51"/>
-      <c r="V54" s="51"/>
-      <c r="W54" s="51"/>
-      <c r="X54" s="51"/>
-      <c r="Y54" s="51"/>
-      <c r="Z54" s="51"/>
-    </row>
-    <row r="55" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="51"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="51"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="51"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="51"/>
-      <c r="X55" s="51"/>
-      <c r="Y55" s="51"/>
-      <c r="Z55" s="51"/>
-    </row>
-    <row r="56" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="51"/>
-      <c r="T56" s="51"/>
-      <c r="U56" s="51"/>
-      <c r="V56" s="51"/>
-      <c r="W56" s="51"/>
-      <c r="X56" s="51"/>
-      <c r="Y56" s="51"/>
-      <c r="Z56" s="51"/>
-    </row>
-    <row r="57" spans="1:26" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="53"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="51"/>
-      <c r="T57" s="51"/>
-      <c r="U57" s="51"/>
-      <c r="V57" s="51"/>
-      <c r="W57" s="51"/>
-      <c r="X57" s="51"/>
-      <c r="Y57" s="51"/>
-      <c r="Z57" s="51"/>
-    </row>
-    <row r="58" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
-      <c r="V58" s="51"/>
-      <c r="W58" s="51"/>
-      <c r="X58" s="51"/>
-      <c r="Y58" s="51"/>
-      <c r="Z58" s="51"/>
-    </row>
-    <row r="59" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="51"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="51"/>
-      <c r="V59" s="51"/>
-      <c r="W59" s="51"/>
-      <c r="X59" s="51"/>
-      <c r="Y59" s="51"/>
-      <c r="Z59" s="51"/>
-    </row>
-    <row r="60" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="51"/>
-      <c r="V60" s="51"/>
-      <c r="W60" s="51"/>
-      <c r="X60" s="51"/>
-      <c r="Y60" s="51"/>
-      <c r="Z60" s="51"/>
-    </row>
-    <row r="61" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="51"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="51"/>
-      <c r="V61" s="51"/>
-      <c r="W61" s="51"/>
-      <c r="X61" s="51"/>
-      <c r="Y61" s="51"/>
-      <c r="Z61" s="51"/>
-    </row>
-    <row r="62" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="51"/>
-      <c r="X62" s="51"/>
-      <c r="Y62" s="51"/>
-      <c r="Z62" s="51"/>
-    </row>
-    <row r="63" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="51"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
-      <c r="V63" s="51"/>
-      <c r="W63" s="51"/>
-      <c r="X63" s="51"/>
-      <c r="Y63" s="51"/>
-      <c r="Z63" s="51"/>
-    </row>
-    <row r="64" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51"/>
-      <c r="O64" s="51"/>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="51"/>
-      <c r="V64" s="51"/>
-      <c r="W64" s="51"/>
-      <c r="X64" s="51"/>
-      <c r="Y64" s="51"/>
-      <c r="Z64" s="51"/>
-    </row>
-    <row r="65" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="51"/>
-      <c r="T65" s="51"/>
-      <c r="U65" s="51"/>
-      <c r="V65" s="51"/>
-      <c r="W65" s="51"/>
-      <c r="X65" s="51"/>
-      <c r="Y65" s="51"/>
-      <c r="Z65" s="51"/>
-    </row>
-    <row r="66" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="51"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="51"/>
-      <c r="V66" s="51"/>
-      <c r="W66" s="51"/>
-      <c r="X66" s="51"/>
-      <c r="Y66" s="51"/>
-      <c r="Z66" s="51"/>
-    </row>
-    <row r="67" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="51"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="51"/>
-      <c r="U67" s="51"/>
-      <c r="V67" s="51"/>
-      <c r="W67" s="51"/>
-      <c r="X67" s="51"/>
-      <c r="Y67" s="51"/>
-      <c r="Z67" s="51"/>
-    </row>
-    <row r="68" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="51"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="51"/>
-      <c r="O68" s="51"/>
-      <c r="P68" s="51"/>
-      <c r="Q68" s="51"/>
-      <c r="R68" s="51"/>
-      <c r="S68" s="51"/>
-      <c r="T68" s="51"/>
-      <c r="U68" s="51"/>
-      <c r="V68" s="51"/>
-      <c r="W68" s="51"/>
-      <c r="X68" s="51"/>
-      <c r="Y68" s="51"/>
-      <c r="Z68" s="51"/>
-    </row>
-    <row r="69" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="51"/>
-      <c r="T69" s="51"/>
-      <c r="U69" s="51"/>
-      <c r="V69" s="51"/>
-      <c r="W69" s="51"/>
-      <c r="X69" s="51"/>
-      <c r="Y69" s="51"/>
-      <c r="Z69" s="51"/>
-    </row>
-    <row r="70" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="51"/>
-      <c r="M70" s="51"/>
-      <c r="N70" s="51"/>
-      <c r="O70" s="51"/>
-      <c r="P70" s="51"/>
-      <c r="Q70" s="51"/>
-      <c r="R70" s="51"/>
-      <c r="S70" s="51"/>
-      <c r="T70" s="51"/>
-      <c r="U70" s="51"/>
-      <c r="V70" s="51"/>
-      <c r="W70" s="51"/>
-      <c r="X70" s="51"/>
-      <c r="Y70" s="51"/>
-      <c r="Z70" s="51"/>
-    </row>
-    <row r="71" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="51"/>
-      <c r="O71" s="51"/>
-      <c r="P71" s="51"/>
-      <c r="Q71" s="51"/>
-      <c r="R71" s="51"/>
-      <c r="S71" s="51"/>
-      <c r="T71" s="51"/>
-      <c r="U71" s="51"/>
-      <c r="V71" s="51"/>
-      <c r="W71" s="51"/>
-      <c r="X71" s="51"/>
-      <c r="Y71" s="51"/>
-      <c r="Z71" s="51"/>
-    </row>
-    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
+      <c r="F18" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="33"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="33"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="24"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="24"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="10"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="10"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="5"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
       <c r="E72" s="7"/>
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
@@ -3021,11 +2851,11 @@
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
     </row>
-    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+    <row r="73">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="22"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="7"/>
       <c r="F73" s="8"/>
       <c r="G73" s="9"/>
@@ -3049,11 +2879,11 @@
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
     </row>
-    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
+    <row r="74">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="22"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="7"/>
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
@@ -3077,13 +2907,13 @@
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
     </row>
-    <row r="75" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="3"/>
+    <row r="75">
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="15"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="17"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -3105,11 +2935,11 @@
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
     </row>
-    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+    <row r="76">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
       <c r="E76" s="7"/>
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
@@ -3133,11 +2963,11 @@
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
     </row>
-    <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+    <row r="77">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
       <c r="E77" s="7"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
@@ -3161,13 +2991,13 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
     </row>
-    <row r="78" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="3"/>
+    <row r="78">
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="15"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -3189,11 +3019,11 @@
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
     </row>
-    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+    <row r="79">
+      <c r="A79" s="5"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
       <c r="E79" s="7"/>
       <c r="F79" s="8"/>
       <c r="G79" s="9"/>
@@ -3217,11 +3047,11 @@
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
     </row>
-    <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+    <row r="80">
+      <c r="A80" s="5"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
       <c r="E80" s="7"/>
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
@@ -3245,13 +3075,13 @@
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
     </row>
-    <row r="81" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="3"/>
+    <row r="81">
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="15"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="17"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -3273,11 +3103,11 @@
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
     </row>
-    <row r="82" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+    <row r="82">
+      <c r="A82" s="5"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
       <c r="E82" s="7"/>
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
@@ -3301,11 +3131,11 @@
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
     </row>
-    <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+    <row r="83">
+      <c r="A83" s="5"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
       <c r="E83" s="7"/>
       <c r="F83" s="8"/>
       <c r="G83" s="9"/>
@@ -3329,13 +3159,13 @@
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
     </row>
-    <row r="84" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="3"/>
+    <row r="84">
+      <c r="A84" s="15"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="15"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="17"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -3357,13 +3187,13 @@
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
     </row>
-    <row r="85" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="5"/>
+    <row r="85">
+      <c r="A85" s="15"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="24"/>
+      <c r="F85" s="47"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -3385,13 +3215,13 @@
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
     </row>
-    <row r="86" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="5"/>
+    <row r="86">
+      <c r="A86" s="15"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="24"/>
+      <c r="F86" s="47"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -3413,13 +3243,13 @@
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
     </row>
-    <row r="87" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="5"/>
+    <row r="87">
+      <c r="A87" s="15"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="24"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="47"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -3441,13 +3271,13 @@
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
     </row>
-    <row r="88" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="5"/>
+    <row r="88">
+      <c r="A88" s="15"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="24"/>
+      <c r="F88" s="47"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
@@ -3469,13 +3299,13 @@
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
     </row>
-    <row r="89" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="5"/>
+    <row r="89">
+      <c r="A89" s="15"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="24"/>
+      <c r="F89" s="47"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
@@ -3497,13 +3327,13 @@
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
     </row>
-    <row r="90" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="3"/>
+    <row r="90">
+      <c r="A90" s="15"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="15"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="17"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
@@ -3525,13 +3355,13 @@
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
     </row>
-    <row r="91" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+    <row r="91">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="25"/>
+      <c r="F91" s="48"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
@@ -3553,13 +3383,13 @@
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
     </row>
-    <row r="92" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+    <row r="92">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="25"/>
+      <c r="F92" s="48"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -3581,13 +3411,13 @@
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
     </row>
-    <row r="93" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="25"/>
+    <row r="93">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="48"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
@@ -3609,13 +3439,13 @@
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
     </row>
-    <row r="94" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+    <row r="94">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="25"/>
+      <c r="F94" s="48"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
@@ -3637,13 +3467,13 @@
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
     </row>
-    <row r="95" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+    <row r="95">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="25"/>
+      <c r="F95" s="48"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
@@ -3665,13 +3495,13 @@
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
     </row>
-    <row r="96" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="13"/>
-      <c r="B96" s="3"/>
+    <row r="96">
+      <c r="A96" s="15"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="15"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="17"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -3693,13 +3523,13 @@
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
     </row>
-    <row r="97" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="13"/>
-      <c r="B97" s="3"/>
+    <row r="97">
+      <c r="A97" s="15"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="15"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="17"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
@@ -3721,13 +3551,13 @@
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
     </row>
-    <row r="98" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
-      <c r="B98" s="5"/>
+    <row r="98">
+      <c r="A98" s="15"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="25"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="48"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
@@ -3749,13 +3579,13 @@
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
     </row>
-    <row r="99" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="5"/>
+    <row r="99">
+      <c r="A99" s="15"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="15"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="17"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
@@ -3777,13 +3607,13 @@
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
     </row>
-    <row r="100" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
-      <c r="B100" s="3"/>
+    <row r="100">
+      <c r="A100" s="15"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="15"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -3805,13 +3635,13 @@
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
     </row>
-    <row r="101" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="25"/>
+    <row r="101">
+      <c r="A101" s="5"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="48"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
@@ -3833,13 +3663,13 @@
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
     </row>
-    <row r="102" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="25"/>
+    <row r="102">
+      <c r="A102" s="5"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="48"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
@@ -3861,13 +3691,13 @@
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
     </row>
-    <row r="103" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="25"/>
+    <row r="103">
+      <c r="A103" s="5"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="48"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -3889,13 +3719,13 @@
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
     </row>
-    <row r="104" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="13"/>
-      <c r="B104" s="3"/>
+    <row r="104">
+      <c r="A104" s="15"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="15"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="17"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -3917,13 +3747,13 @@
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
     </row>
-    <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="A105" s="10"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="12"/>
+      <c r="F105" s="13"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
@@ -3945,13 +3775,13 @@
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
     </row>
-    <row r="106" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+    <row r="106">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="12"/>
+      <c r="F106" s="13"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -3973,13 +3803,13 @@
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
     </row>
-    <row r="107" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+    <row r="107">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="12"/>
+      <c r="F107" s="13"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -4001,13 +3831,13 @@
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
     </row>
-    <row r="108" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+    <row r="108">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="12"/>
+      <c r="F108" s="13"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
@@ -4029,13 +3859,13 @@
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
     </row>
-    <row r="109" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+    <row r="109">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="12"/>
+      <c r="F109" s="13"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
@@ -4057,13 +3887,13 @@
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+    <row r="110">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="26"/>
+      <c r="F110" s="52"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
@@ -4085,13 +3915,13 @@
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
     </row>
-    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+    <row r="111">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="12"/>
+      <c r="F111" s="13"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
@@ -4113,13 +3943,13 @@
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
     </row>
-    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+    <row r="112">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
-      <c r="F112" s="12"/>
+      <c r="F112" s="13"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
@@ -4141,13 +3971,13 @@
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
     </row>
-    <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+    <row r="113">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
-      <c r="F113" s="12"/>
+      <c r="F113" s="13"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
@@ -4169,13 +3999,13 @@
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
     </row>
-    <row r="114" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+    <row r="114">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
-      <c r="F114" s="12"/>
+      <c r="F114" s="13"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
@@ -4197,13 +4027,13 @@
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
     </row>
-    <row r="115" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+    <row r="115">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="7"/>
-      <c r="F115" s="12"/>
+      <c r="F115" s="13"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -4225,13 +4055,13 @@
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+    <row r="116">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
-      <c r="F116" s="12"/>
+      <c r="F116" s="13"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
@@ -4253,13 +4083,13 @@
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
     </row>
-    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+    <row r="117">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
-      <c r="F117" s="12"/>
+      <c r="F117" s="13"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -4281,13 +4111,13 @@
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
     </row>
-    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+    <row r="118">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
-      <c r="F118" s="12"/>
+      <c r="F118" s="13"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
@@ -4309,13 +4139,13 @@
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
     </row>
-    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+    <row r="119">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
-      <c r="F119" s="12"/>
+      <c r="F119" s="13"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
@@ -4337,13 +4167,13 @@
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
     </row>
-    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+    <row r="120">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="12"/>
+      <c r="F120" s="13"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
@@ -4365,13 +4195,13 @@
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
     </row>
-    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+    <row r="121">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="12"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
@@ -4393,13 +4223,13 @@
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
     </row>
-    <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+    <row r="122">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="7"/>
-      <c r="F122" s="12"/>
+      <c r="F122" s="13"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
@@ -4421,13 +4251,13 @@
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
     </row>
-    <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+    <row r="123">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="7"/>
-      <c r="F123" s="12"/>
+      <c r="F123" s="13"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
@@ -4449,13 +4279,13 @@
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
     </row>
-    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+    <row r="124">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="12"/>
+      <c r="F124" s="13"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -4477,13 +4307,13 @@
       <c r="Y124" s="9"/>
       <c r="Z124" s="9"/>
     </row>
-    <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+    <row r="125">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="7"/>
-      <c r="F125" s="12"/>
+      <c r="F125" s="13"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
@@ -4505,13 +4335,13 @@
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
     </row>
-    <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
+    <row r="126">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="12"/>
+      <c r="F126" s="13"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
@@ -4533,13 +4363,13 @@
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
     </row>
-    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
+    <row r="127">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="7"/>
-      <c r="F127" s="27"/>
+      <c r="F127" s="62"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -4561,13 +4391,13 @@
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
     </row>
-    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
+    <row r="128">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="7"/>
-      <c r="F128" s="27"/>
+      <c r="F128" s="62"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
@@ -4589,13 +4419,13 @@
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
     </row>
-    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+    <row r="129">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
-      <c r="F129" s="27"/>
+      <c r="F129" s="62"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
@@ -4617,13 +4447,13 @@
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+    <row r="130">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="7"/>
-      <c r="F130" s="27"/>
+      <c r="F130" s="62"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
@@ -4645,13 +4475,13 @@
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+    <row r="131">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="27"/>
+      <c r="F131" s="62"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
@@ -4673,13 +4503,13 @@
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
     </row>
-    <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
       <c r="E132" s="7"/>
-      <c r="F132" s="12"/>
+      <c r="F132" s="13"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
@@ -4701,11 +4531,11 @@
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
     </row>
-    <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" s="10"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="5"/>
       <c r="C133" s="6"/>
-      <c r="D133" s="11"/>
+      <c r="D133" s="12"/>
       <c r="E133" s="7"/>
       <c r="F133" s="8"/>
       <c r="G133" s="9"/>
@@ -4729,11 +4559,11 @@
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
     </row>
-    <row r="134" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" s="10"/>
-      <c r="B134" s="3"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="11"/>
+      <c r="D134" s="12"/>
       <c r="E134" s="7"/>
       <c r="F134" s="8"/>
       <c r="G134" s="9"/>
@@ -4757,13 +4587,13 @@
       <c r="Y134" s="9"/>
       <c r="Z134" s="9"/>
     </row>
-    <row r="135" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
       <c r="E135" s="7"/>
-      <c r="F135" s="12"/>
+      <c r="F135" s="13"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
@@ -4785,11 +4615,11 @@
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
     </row>
-    <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+    <row r="136">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="18"/>
+      <c r="D136" s="30"/>
       <c r="E136" s="7"/>
       <c r="F136" s="8"/>
       <c r="G136" s="9"/>
@@ -4813,11 +4643,11 @@
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
     </row>
-    <row r="137" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+    <row r="137">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="18"/>
+      <c r="D137" s="30"/>
       <c r="E137" s="7"/>
       <c r="F137" s="8"/>
       <c r="G137" s="9"/>
@@ -4841,13 +4671,13 @@
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
     </row>
-    <row r="138" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="4"/>
+    <row r="138">
+      <c r="A138" s="5"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="12"/>
+      <c r="F138" s="13"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
@@ -4869,11 +4699,11 @@
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
     </row>
-    <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
+    <row r="139">
+      <c r="A139" s="5"/>
       <c r="B139" s="10"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="18"/>
+      <c r="D139" s="30"/>
       <c r="E139" s="7"/>
       <c r="F139" s="8"/>
       <c r="G139" s="9"/>
@@ -4897,11 +4727,11 @@
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
     </row>
-    <row r="140" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="4"/>
+    <row r="140">
+      <c r="A140" s="5"/>
       <c r="B140" s="10"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="18"/>
+      <c r="D140" s="30"/>
       <c r="E140" s="7"/>
       <c r="F140" s="8"/>
       <c r="G140" s="9"/>
@@ -4925,13 +4755,13 @@
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
     </row>
-    <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="12"/>
+      <c r="F141" s="13"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
@@ -4953,9 +4783,9 @@
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
     </row>
-    <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" s="10"/>
-      <c r="B142" s="4"/>
+      <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="7"/>
@@ -4981,9 +4811,9 @@
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
     </row>
-    <row r="143" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" s="10"/>
-      <c r="B143" s="4"/>
+      <c r="B143" s="5"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="7"/>
@@ -5009,13 +4839,13 @@
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
     </row>
-    <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" s="7"/>
-      <c r="B144" s="28"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="30"/>
+      <c r="B144" s="63"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="65"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -5037,11 +4867,11 @@
       <c r="Y144" s="9"/>
       <c r="Z144" s="9"/>
     </row>
-    <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
-      <c r="B145" s="31"/>
+    <row r="145">
+      <c r="A145" s="5"/>
+      <c r="B145" s="66"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="29"/>
+      <c r="D145" s="64"/>
       <c r="E145" s="7"/>
       <c r="F145" s="8"/>
       <c r="G145" s="9"/>
@@ -5065,11 +4895,11 @@
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
     </row>
-    <row r="146" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
-      <c r="B146" s="31"/>
+    <row r="146">
+      <c r="A146" s="5"/>
+      <c r="B146" s="66"/>
       <c r="C146" s="6"/>
-      <c r="D146" s="29"/>
+      <c r="D146" s="64"/>
       <c r="E146" s="7"/>
       <c r="F146" s="8"/>
       <c r="G146" s="9"/>
@@ -5093,13 +4923,13 @@
       <c r="Y146" s="9"/>
       <c r="Z146" s="9"/>
     </row>
-    <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="4"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="30"/>
+    <row r="147">
+      <c r="A147" s="5"/>
+      <c r="B147" s="63"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="63"/>
+      <c r="F147" s="65"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
@@ -5121,11 +4951,11 @@
       <c r="Y147" s="9"/>
       <c r="Z147" s="9"/>
     </row>
-    <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="4"/>
-      <c r="B148" s="31"/>
+    <row r="148">
+      <c r="A148" s="5"/>
+      <c r="B148" s="66"/>
       <c r="C148" s="6"/>
-      <c r="D148" s="29"/>
+      <c r="D148" s="64"/>
       <c r="E148" s="7"/>
       <c r="F148" s="8"/>
       <c r="G148" s="9"/>
@@ -5149,11 +4979,11 @@
       <c r="Y148" s="9"/>
       <c r="Z148" s="9"/>
     </row>
-    <row r="149" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="4"/>
-      <c r="B149" s="31"/>
+    <row r="149">
+      <c r="A149" s="5"/>
+      <c r="B149" s="66"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="29"/>
+      <c r="D149" s="64"/>
       <c r="E149" s="7"/>
       <c r="F149" s="8"/>
       <c r="G149" s="9"/>
@@ -5177,13 +5007,13 @@
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
     </row>
-    <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="4"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="30"/>
+    <row r="150">
+      <c r="A150" s="5"/>
+      <c r="B150" s="63"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="63"/>
+      <c r="F150" s="65"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
@@ -5205,11 +5035,11 @@
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
     </row>
-    <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
+    <row r="151">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="29"/>
+      <c r="D151" s="64"/>
       <c r="E151" s="7"/>
       <c r="F151" s="8"/>
       <c r="G151" s="9"/>
@@ -5233,11 +5063,11 @@
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
     </row>
-    <row r="152" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
+    <row r="152">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
       <c r="C152" s="6"/>
-      <c r="D152" s="29"/>
+      <c r="D152" s="64"/>
       <c r="E152" s="7"/>
       <c r="F152" s="8"/>
       <c r="G152" s="9"/>
@@ -5261,13 +5091,13 @@
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="A153" s="7"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="30"/>
+      <c r="B153" s="63"/>
+      <c r="C153" s="64"/>
+      <c r="D153" s="64"/>
+      <c r="E153" s="63"/>
+      <c r="F153" s="65"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
@@ -5289,9 +5119,9 @@
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
     </row>
-    <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="A154" s="10"/>
-      <c r="B154" s="3"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
@@ -5317,9 +5147,9 @@
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
     </row>
-    <row r="155" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="155">
       <c r="A155" s="10"/>
-      <c r="B155" s="3"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
@@ -5345,13 +5175,13 @@
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="A156" s="7"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="30"/>
+      <c r="B156" s="63"/>
+      <c r="C156" s="64"/>
+      <c r="D156" s="64"/>
+      <c r="E156" s="63"/>
+      <c r="F156" s="65"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
@@ -5373,11 +5203,11 @@
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
     </row>
-    <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
+    <row r="157">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
       <c r="C157" s="6"/>
-      <c r="D157" s="29"/>
+      <c r="D157" s="64"/>
       <c r="E157" s="7"/>
       <c r="F157" s="8"/>
       <c r="G157" s="9"/>
@@ -5401,11 +5231,11 @@
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
     </row>
-    <row r="158" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
+    <row r="158">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
       <c r="C158" s="6"/>
-      <c r="D158" s="29"/>
+      <c r="D158" s="64"/>
       <c r="E158" s="7"/>
       <c r="F158" s="8"/>
       <c r="G158" s="9"/>
@@ -5429,11 +5259,11 @@
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="44"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
@@ -5457,11 +5287,11 @@
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="4"/>
+    <row r="160">
+      <c r="A160" s="5"/>
       <c r="B160" s="9"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
@@ -5485,11 +5315,11 @@
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="44"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -5513,11 +5343,11 @@
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -5541,13 +5371,13 @@
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="13"/>
-      <c r="B163" s="4"/>
+    <row r="163">
+      <c r="A163" s="15"/>
+      <c r="B163" s="5"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
-      <c r="F163" s="12"/>
+      <c r="F163" s="13"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
@@ -5569,13 +5399,13 @@
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="13"/>
-      <c r="B164" s="4"/>
+    <row r="164">
+      <c r="A164" s="15"/>
+      <c r="B164" s="5"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="7"/>
-      <c r="F164" s="12"/>
+      <c r="F164" s="13"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
@@ -5597,13 +5427,13 @@
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
     </row>
-    <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="13"/>
-      <c r="B165" s="4"/>
+    <row r="165">
+      <c r="A165" s="15"/>
+      <c r="B165" s="5"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="7"/>
-      <c r="F165" s="12"/>
+      <c r="F165" s="13"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
@@ -5625,13 +5455,13 @@
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
     </row>
-    <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="13"/>
-      <c r="B166" s="4"/>
+    <row r="166">
+      <c r="A166" s="15"/>
+      <c r="B166" s="5"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="7"/>
-      <c r="F166" s="12"/>
+      <c r="F166" s="13"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
@@ -5653,11 +5483,11 @@
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
     </row>
-    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="44"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -5681,9 +5511,9 @@
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
     </row>
-    <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="A168" s="10"/>
-      <c r="B168" s="4"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="7"/>
@@ -5709,9 +5539,9 @@
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
     </row>
-    <row r="169" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="169">
       <c r="A169" s="10"/>
-      <c r="B169" s="4"/>
+      <c r="B169" s="5"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="7"/>
@@ -5737,13 +5567,13 @@
       <c r="Y169" s="9"/>
       <c r="Z169" s="9"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="A170" s="10"/>
-      <c r="B170" s="4"/>
+      <c r="B170" s="5"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="7"/>
-      <c r="F170" s="12"/>
+      <c r="F170" s="13"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
@@ -5765,13 +5595,13 @@
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
     </row>
-    <row r="171" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171">
       <c r="A171" s="10"/>
-      <c r="B171" s="4"/>
+      <c r="B171" s="5"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
-      <c r="F171" s="12"/>
+      <c r="F171" s="13"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
@@ -5793,13 +5623,13 @@
       <c r="Y171" s="9"/>
       <c r="Z171" s="9"/>
     </row>
-    <row r="172" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172">
       <c r="A172" s="10"/>
-      <c r="B172" s="4"/>
+      <c r="B172" s="5"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="7"/>
-      <c r="F172" s="12"/>
+      <c r="F172" s="13"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
@@ -5821,13 +5651,13 @@
       <c r="Y172" s="9"/>
       <c r="Z172" s="9"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173">
       <c r="A173" s="10"/>
-      <c r="B173" s="4"/>
+      <c r="B173" s="5"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
-      <c r="F173" s="12"/>
+      <c r="F173" s="13"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
@@ -5849,13 +5679,13 @@
       <c r="Y173" s="9"/>
       <c r="Z173" s="9"/>
     </row>
-    <row r="174" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="A174" s="10"/>
-      <c r="B174" s="4"/>
+      <c r="B174" s="5"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
-      <c r="F174" s="12"/>
+      <c r="F174" s="13"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
@@ -5877,10 +5707,10 @@
       <c r="Y174" s="9"/>
       <c r="Z174" s="9"/>
     </row>
-    <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="11"/>
+    <row r="175">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
       <c r="F175" s="8"/>
@@ -5905,10 +5735,10 @@
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
     </row>
-    <row r="176" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="11"/>
+    <row r="176">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="6"/>
       <c r="E176" s="7"/>
       <c r="F176" s="8"/>
@@ -5933,13 +5763,13 @@
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
     </row>
-    <row r="177" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="11"/>
+    <row r="177">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
-      <c r="F177" s="12"/>
+      <c r="F177" s="13"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
@@ -5961,13 +5791,13 @@
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
     </row>
-    <row r="178" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="11"/>
+    <row r="178">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="6"/>
       <c r="E178" s="7"/>
-      <c r="F178" s="12"/>
+      <c r="F178" s="13"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
@@ -5989,13 +5819,13 @@
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="11"/>
+    <row r="179">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="6"/>
       <c r="E179" s="7"/>
-      <c r="F179" s="12"/>
+      <c r="F179" s="13"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
@@ -6017,13 +5847,13 @@
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
     </row>
-    <row r="180" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="22"/>
+    <row r="180">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="44"/>
       <c r="E180" s="7"/>
-      <c r="F180" s="12"/>
+      <c r="F180" s="13"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
@@ -6045,13 +5875,13 @@
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
     </row>
-    <row r="181" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="44"/>
       <c r="E181" s="9"/>
-      <c r="F181" s="23"/>
+      <c r="F181" s="45"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
@@ -6073,13 +5903,13 @@
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182">
       <c r="A182" s="10"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="20"/>
-      <c r="D182" s="18"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="30"/>
       <c r="E182" s="7"/>
-      <c r="F182" s="24"/>
+      <c r="F182" s="47"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
@@ -6101,13 +5931,13 @@
       <c r="Y182" s="7"/>
       <c r="Z182" s="7"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183">
       <c r="A183" s="10"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="18"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="30"/>
       <c r="E183" s="7"/>
-      <c r="F183" s="24"/>
+      <c r="F183" s="47"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
@@ -6129,13 +5959,13 @@
       <c r="Y183" s="7"/>
       <c r="Z183" s="7"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184">
       <c r="A184" s="10"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="18"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="30"/>
       <c r="E184" s="7"/>
-      <c r="F184" s="12"/>
+      <c r="F184" s="13"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
@@ -6157,13 +5987,13 @@
       <c r="Y184" s="7"/>
       <c r="Z184" s="7"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185">
       <c r="A185" s="10"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="18"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="30"/>
       <c r="E185" s="7"/>
-      <c r="F185" s="24"/>
+      <c r="F185" s="47"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
@@ -6185,13 +6015,13 @@
       <c r="Y185" s="7"/>
       <c r="Z185" s="7"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186">
       <c r="A186" s="10"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="20"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="24"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="30"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="47"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
@@ -6213,13 +6043,13 @@
       <c r="Y186" s="7"/>
       <c r="Z186" s="7"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187">
       <c r="A187" s="10"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="18"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="30"/>
       <c r="E187" s="7"/>
-      <c r="F187" s="24"/>
+      <c r="F187" s="47"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
@@ -6241,13 +6071,13 @@
       <c r="Y187" s="7"/>
       <c r="Z187" s="7"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188">
       <c r="A188" s="10"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="20"/>
-      <c r="D188" s="18"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="30"/>
       <c r="E188" s="7"/>
-      <c r="F188" s="12"/>
+      <c r="F188" s="13"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
@@ -6269,13 +6099,13 @@
       <c r="Y188" s="7"/>
       <c r="Z188" s="7"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189">
       <c r="A189" s="10"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="18"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="30"/>
       <c r="E189" s="7"/>
-      <c r="F189" s="12"/>
+      <c r="F189" s="13"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
@@ -6297,13 +6127,13 @@
       <c r="Y189" s="7"/>
       <c r="Z189" s="7"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
-      <c r="C190" s="22"/>
-      <c r="D190" s="22"/>
+      <c r="C190" s="44"/>
+      <c r="D190" s="44"/>
       <c r="E190" s="9"/>
-      <c r="F190" s="23"/>
+      <c r="F190" s="45"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
@@ -6325,13 +6155,13 @@
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
     </row>
-    <row r="191" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
-      <c r="B191" s="32"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="22"/>
+    <row r="191">
+      <c r="A191" s="5"/>
+      <c r="B191" s="67"/>
+      <c r="C191" s="68"/>
+      <c r="D191" s="44"/>
       <c r="E191" s="7"/>
-      <c r="F191" s="34"/>
+      <c r="F191" s="69"/>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
@@ -6353,13 +6183,13 @@
       <c r="Y191" s="9"/>
       <c r="Z191" s="9"/>
     </row>
-    <row r="192" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
-      <c r="B192" s="32"/>
-      <c r="C192" s="33"/>
-      <c r="D192" s="22"/>
+    <row r="192">
+      <c r="A192" s="5"/>
+      <c r="B192" s="67"/>
+      <c r="C192" s="68"/>
+      <c r="D192" s="44"/>
       <c r="E192" s="7"/>
-      <c r="F192" s="35"/>
+      <c r="F192" s="70"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
@@ -6381,13 +6211,13 @@
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
-      <c r="B193" s="32"/>
-      <c r="C193" s="33"/>
-      <c r="D193" s="22"/>
+    <row r="193">
+      <c r="A193" s="5"/>
+      <c r="B193" s="67"/>
+      <c r="C193" s="68"/>
+      <c r="D193" s="44"/>
       <c r="E193" s="7"/>
-      <c r="F193" s="34"/>
+      <c r="F193" s="69"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
@@ -6409,13 +6239,13 @@
       <c r="Y193" s="9"/>
       <c r="Z193" s="9"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
-      <c r="B194" s="32"/>
-      <c r="C194" s="33"/>
-      <c r="D194" s="22"/>
+    <row r="194">
+      <c r="A194" s="5"/>
+      <c r="B194" s="67"/>
+      <c r="C194" s="68"/>
+      <c r="D194" s="44"/>
       <c r="E194" s="7"/>
-      <c r="F194" s="34"/>
+      <c r="F194" s="69"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
       <c r="I194" s="9"/>
@@ -6437,13 +6267,13 @@
       <c r="Y194" s="9"/>
       <c r="Z194" s="9"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="4"/>
-      <c r="B195" s="32"/>
-      <c r="C195" s="33"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="34"/>
+    <row r="195">
+      <c r="A195" s="5"/>
+      <c r="B195" s="67"/>
+      <c r="C195" s="68"/>
+      <c r="D195" s="44"/>
+      <c r="E195" s="36"/>
+      <c r="F195" s="69"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
@@ -6465,13 +6295,13 @@
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="4"/>
-      <c r="B196" s="32"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="22"/>
+    <row r="196">
+      <c r="A196" s="5"/>
+      <c r="B196" s="67"/>
+      <c r="C196" s="68"/>
+      <c r="D196" s="44"/>
       <c r="E196" s="7"/>
-      <c r="F196" s="23"/>
+      <c r="F196" s="45"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
@@ -6493,13 +6323,13 @@
       <c r="Y196" s="9"/>
       <c r="Z196" s="9"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="36"/>
-      <c r="B197" s="37"/>
-      <c r="C197" s="38"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="34"/>
+    <row r="197">
+      <c r="A197" s="71"/>
+      <c r="B197" s="72"/>
+      <c r="C197" s="73"/>
+      <c r="D197" s="74"/>
+      <c r="E197" s="43"/>
+      <c r="F197" s="69"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
@@ -6521,13 +6351,13 @@
       <c r="Y197" s="9"/>
       <c r="Z197" s="9"/>
     </row>
-    <row r="198" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="36"/>
-      <c r="B198" s="40"/>
-      <c r="C198" s="38"/>
-      <c r="D198" s="22"/>
+    <row r="198">
+      <c r="A198" s="71"/>
+      <c r="B198" s="75"/>
+      <c r="C198" s="73"/>
+      <c r="D198" s="44"/>
       <c r="E198" s="7"/>
-      <c r="F198" s="34"/>
+      <c r="F198" s="69"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
@@ -6549,13 +6379,13 @@
       <c r="Y198" s="9"/>
       <c r="Z198" s="9"/>
     </row>
-    <row r="199" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="22"/>
+      <c r="C199" s="44"/>
+      <c r="D199" s="44"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="23"/>
+      <c r="F199" s="45"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
@@ -6577,13 +6407,13 @@
       <c r="Y199" s="9"/>
       <c r="Z199" s="9"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="36"/>
-      <c r="B200" s="36"/>
-      <c r="C200" s="38"/>
-      <c r="D200" s="22"/>
+    <row r="200">
+      <c r="A200" s="71"/>
+      <c r="B200" s="71"/>
+      <c r="C200" s="73"/>
+      <c r="D200" s="44"/>
       <c r="E200" s="7"/>
-      <c r="F200" s="34"/>
+      <c r="F200" s="69"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
@@ -6605,13 +6435,13 @@
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="36"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="38"/>
-      <c r="D201" s="22"/>
+    <row r="201">
+      <c r="A201" s="71"/>
+      <c r="B201" s="71"/>
+      <c r="C201" s="73"/>
+      <c r="D201" s="44"/>
       <c r="E201" s="7"/>
-      <c r="F201" s="34"/>
+      <c r="F201" s="69"/>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
@@ -6633,13 +6463,13 @@
       <c r="Y201" s="9"/>
       <c r="Z201" s="9"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="36"/>
-      <c r="B202" s="36"/>
-      <c r="C202" s="38"/>
-      <c r="D202" s="22"/>
+    <row r="202">
+      <c r="A202" s="71"/>
+      <c r="B202" s="71"/>
+      <c r="C202" s="73"/>
+      <c r="D202" s="44"/>
       <c r="E202" s="7"/>
-      <c r="F202" s="35"/>
+      <c r="F202" s="70"/>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
@@ -6661,13 +6491,13 @@
       <c r="Y202" s="9"/>
       <c r="Z202" s="9"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="36"/>
-      <c r="B203" s="36"/>
-      <c r="C203" s="38"/>
-      <c r="D203" s="22"/>
+    <row r="203">
+      <c r="A203" s="71"/>
+      <c r="B203" s="71"/>
+      <c r="C203" s="73"/>
+      <c r="D203" s="44"/>
       <c r="E203" s="7"/>
-      <c r="F203" s="34"/>
+      <c r="F203" s="69"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
@@ -6689,13 +6519,13 @@
       <c r="Y203" s="9"/>
       <c r="Z203" s="9"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="36"/>
-      <c r="B204" s="36"/>
-      <c r="C204" s="38"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="17"/>
-      <c r="F204" s="34"/>
+    <row r="204">
+      <c r="A204" s="71"/>
+      <c r="B204" s="71"/>
+      <c r="C204" s="73"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="36"/>
+      <c r="F204" s="69"/>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
@@ -6717,13 +6547,13 @@
       <c r="Y204" s="9"/>
       <c r="Z204" s="9"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="36"/>
-      <c r="B205" s="36"/>
-      <c r="C205" s="38"/>
-      <c r="D205" s="22"/>
+    <row r="205">
+      <c r="A205" s="71"/>
+      <c r="B205" s="71"/>
+      <c r="C205" s="73"/>
+      <c r="D205" s="44"/>
       <c r="E205" s="7"/>
-      <c r="F205" s="34"/>
+      <c r="F205" s="69"/>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
       <c r="I205" s="9"/>
@@ -6745,13 +6575,13 @@
       <c r="Y205" s="9"/>
       <c r="Z205" s="9"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="36"/>
-      <c r="B206" s="36"/>
-      <c r="C206" s="38"/>
-      <c r="D206" s="39"/>
+    <row r="206">
+      <c r="A206" s="71"/>
+      <c r="B206" s="71"/>
+      <c r="C206" s="73"/>
+      <c r="D206" s="74"/>
       <c r="E206" s="7"/>
-      <c r="F206" s="34"/>
+      <c r="F206" s="69"/>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
       <c r="I206" s="9"/>
@@ -6773,13 +6603,13 @@
       <c r="Y206" s="9"/>
       <c r="Z206" s="9"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="41"/>
-      <c r="B207" s="41"/>
-      <c r="C207" s="20"/>
-      <c r="D207" s="22"/>
+    <row r="207">
+      <c r="A207" s="76"/>
+      <c r="B207" s="76"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="44"/>
       <c r="E207" s="7"/>
-      <c r="F207" s="34"/>
+      <c r="F207" s="69"/>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
       <c r="I207" s="9"/>
@@ -6801,13 +6631,13 @@
       <c r="Y207" s="9"/>
       <c r="Z207" s="9"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
+      <c r="C208" s="44"/>
+      <c r="D208" s="44"/>
       <c r="E208" s="9"/>
-      <c r="F208" s="23"/>
+      <c r="F208" s="45"/>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
       <c r="I208" s="9"/>
@@ -6829,13 +6659,13 @@
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="4"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="33"/>
-      <c r="D209" s="22"/>
+    <row r="209">
+      <c r="A209" s="5"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="68"/>
+      <c r="D209" s="44"/>
       <c r="E209" s="7"/>
-      <c r="F209" s="34"/>
+      <c r="F209" s="69"/>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
       <c r="I209" s="9"/>
@@ -6857,13 +6687,13 @@
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="36"/>
-      <c r="B210" s="40"/>
-      <c r="C210" s="38"/>
-      <c r="D210" s="22"/>
+    <row r="210">
+      <c r="A210" s="71"/>
+      <c r="B210" s="75"/>
+      <c r="C210" s="73"/>
+      <c r="D210" s="44"/>
       <c r="E210" s="7"/>
-      <c r="F210" s="34"/>
+      <c r="F210" s="69"/>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
       <c r="I210" s="9"/>
@@ -6885,13 +6715,13 @@
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="36"/>
-      <c r="B211" s="40"/>
-      <c r="C211" s="38"/>
-      <c r="D211" s="22"/>
+    <row r="211">
+      <c r="A211" s="71"/>
+      <c r="B211" s="75"/>
+      <c r="C211" s="73"/>
+      <c r="D211" s="44"/>
       <c r="E211" s="7"/>
-      <c r="F211" s="34"/>
+      <c r="F211" s="69"/>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
       <c r="I211" s="9"/>
@@ -6913,13 +6743,13 @@
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="36"/>
-      <c r="B212" s="40"/>
-      <c r="C212" s="38"/>
-      <c r="D212" s="22"/>
+    <row r="212">
+      <c r="A212" s="71"/>
+      <c r="B212" s="75"/>
+      <c r="C212" s="73"/>
+      <c r="D212" s="44"/>
       <c r="E212" s="7"/>
-      <c r="F212" s="34"/>
+      <c r="F212" s="69"/>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
       <c r="I212" s="9"/>
@@ -6941,13 +6771,13 @@
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="36"/>
-      <c r="B213" s="40"/>
-      <c r="C213" s="38"/>
-      <c r="D213" s="22"/>
-      <c r="E213" s="17"/>
-      <c r="F213" s="34"/>
+    <row r="213">
+      <c r="A213" s="71"/>
+      <c r="B213" s="75"/>
+      <c r="C213" s="73"/>
+      <c r="D213" s="44"/>
+      <c r="E213" s="36"/>
+      <c r="F213" s="69"/>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
       <c r="I213" s="9"/>
@@ -6969,13 +6799,13 @@
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="36"/>
-      <c r="B214" s="40"/>
-      <c r="C214" s="38"/>
-      <c r="D214" s="22"/>
+    <row r="214">
+      <c r="A214" s="71"/>
+      <c r="B214" s="75"/>
+      <c r="C214" s="73"/>
+      <c r="D214" s="44"/>
       <c r="E214" s="7"/>
-      <c r="F214" s="34"/>
+      <c r="F214" s="69"/>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
       <c r="I214" s="9"/>
@@ -6997,13 +6827,13 @@
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="36"/>
-      <c r="B215" s="40"/>
-      <c r="C215" s="38"/>
-      <c r="D215" s="22"/>
+    <row r="215">
+      <c r="A215" s="71"/>
+      <c r="B215" s="75"/>
+      <c r="C215" s="73"/>
+      <c r="D215" s="44"/>
       <c r="E215" s="7"/>
-      <c r="F215" s="34"/>
+      <c r="F215" s="69"/>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
       <c r="I215" s="9"/>
@@ -7025,13 +6855,13 @@
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="36"/>
-      <c r="B216" s="40"/>
-      <c r="C216" s="38"/>
-      <c r="D216" s="22"/>
+    <row r="216">
+      <c r="A216" s="71"/>
+      <c r="B216" s="75"/>
+      <c r="C216" s="73"/>
+      <c r="D216" s="44"/>
       <c r="E216" s="7"/>
-      <c r="F216" s="34"/>
+      <c r="F216" s="69"/>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
       <c r="I216" s="9"/>
@@ -7053,13 +6883,13 @@
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
+      <c r="C217" s="44"/>
+      <c r="D217" s="44"/>
       <c r="E217" s="9"/>
-      <c r="F217" s="23"/>
+      <c r="F217" s="45"/>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
       <c r="I217" s="9"/>
@@ -7081,13 +6911,13 @@
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="4"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
+    <row r="218">
+      <c r="A218" s="5"/>
+      <c r="B218" s="67"/>
+      <c r="C218" s="68"/>
+      <c r="D218" s="68"/>
       <c r="E218" s="7"/>
-      <c r="F218" s="34"/>
+      <c r="F218" s="69"/>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
       <c r="I218" s="9"/>
@@ -7109,13 +6939,13 @@
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="36"/>
-      <c r="B219" s="40"/>
-      <c r="C219" s="38"/>
-      <c r="D219" s="38"/>
+    <row r="219">
+      <c r="A219" s="71"/>
+      <c r="B219" s="75"/>
+      <c r="C219" s="73"/>
+      <c r="D219" s="73"/>
       <c r="E219" s="7"/>
-      <c r="F219" s="34"/>
+      <c r="F219" s="69"/>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
       <c r="I219" s="9"/>
@@ -7137,13 +6967,13 @@
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="36"/>
-      <c r="B220" s="40"/>
-      <c r="C220" s="38"/>
-      <c r="D220" s="38"/>
+    <row r="220">
+      <c r="A220" s="71"/>
+      <c r="B220" s="75"/>
+      <c r="C220" s="73"/>
+      <c r="D220" s="73"/>
       <c r="E220" s="7"/>
-      <c r="F220" s="23"/>
+      <c r="F220" s="45"/>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
@@ -7165,13 +6995,13 @@
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="36"/>
-      <c r="B221" s="40"/>
-      <c r="C221" s="38"/>
-      <c r="D221" s="38"/>
+    <row r="221">
+      <c r="A221" s="71"/>
+      <c r="B221" s="75"/>
+      <c r="C221" s="73"/>
+      <c r="D221" s="73"/>
       <c r="E221" s="7"/>
-      <c r="F221" s="34"/>
+      <c r="F221" s="69"/>
       <c r="G221" s="9"/>
       <c r="H221" s="9"/>
       <c r="I221" s="9"/>
@@ -7193,13 +7023,13 @@
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="36"/>
-      <c r="B222" s="40"/>
-      <c r="C222" s="38"/>
-      <c r="D222" s="38"/>
-      <c r="E222" s="17"/>
-      <c r="F222" s="34"/>
+    <row r="222">
+      <c r="A222" s="71"/>
+      <c r="B222" s="75"/>
+      <c r="C222" s="73"/>
+      <c r="D222" s="73"/>
+      <c r="E222" s="36"/>
+      <c r="F222" s="69"/>
       <c r="G222" s="9"/>
       <c r="H222" s="9"/>
       <c r="I222" s="9"/>
@@ -7221,13 +7051,13 @@
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="36"/>
-      <c r="B223" s="40"/>
-      <c r="C223" s="38"/>
-      <c r="D223" s="38"/>
+    <row r="223">
+      <c r="A223" s="71"/>
+      <c r="B223" s="75"/>
+      <c r="C223" s="73"/>
+      <c r="D223" s="73"/>
       <c r="E223" s="7"/>
-      <c r="F223" s="34"/>
+      <c r="F223" s="69"/>
       <c r="G223" s="9"/>
       <c r="H223" s="9"/>
       <c r="I223" s="9"/>
@@ -7249,13 +7079,13 @@
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="36"/>
-      <c r="B224" s="40"/>
-      <c r="C224" s="38"/>
-      <c r="D224" s="38"/>
-      <c r="E224" s="21"/>
-      <c r="F224" s="34"/>
+    <row r="224">
+      <c r="A224" s="71"/>
+      <c r="B224" s="75"/>
+      <c r="C224" s="73"/>
+      <c r="D224" s="73"/>
+      <c r="E224" s="43"/>
+      <c r="F224" s="69"/>
       <c r="G224" s="9"/>
       <c r="H224" s="9"/>
       <c r="I224" s="9"/>
@@ -7277,13 +7107,13 @@
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="36"/>
-      <c r="B225" s="40"/>
-      <c r="C225" s="38"/>
-      <c r="D225" s="38"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="34"/>
+    <row r="225">
+      <c r="A225" s="71"/>
+      <c r="B225" s="75"/>
+      <c r="C225" s="73"/>
+      <c r="D225" s="73"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="69"/>
       <c r="G225" s="9"/>
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
@@ -7305,13 +7135,13 @@
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="22"/>
+      <c r="C226" s="44"/>
+      <c r="D226" s="44"/>
       <c r="E226" s="9"/>
-      <c r="F226" s="23"/>
+      <c r="F226" s="45"/>
       <c r="G226" s="9"/>
       <c r="H226" s="9"/>
       <c r="I226" s="9"/>
@@ -7333,13 +7163,13 @@
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="36"/>
-      <c r="B227" s="40"/>
-      <c r="C227" s="38"/>
-      <c r="D227" s="38"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="34"/>
+    <row r="227">
+      <c r="A227" s="71"/>
+      <c r="B227" s="75"/>
+      <c r="C227" s="73"/>
+      <c r="D227" s="73"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="69"/>
       <c r="G227" s="9"/>
       <c r="H227" s="9"/>
       <c r="I227" s="9"/>
@@ -7361,13 +7191,13 @@
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="36"/>
-      <c r="B228" s="40"/>
-      <c r="C228" s="38"/>
-      <c r="D228" s="38"/>
-      <c r="E228" s="21"/>
-      <c r="F228" s="34"/>
+    <row r="228">
+      <c r="A228" s="71"/>
+      <c r="B228" s="75"/>
+      <c r="C228" s="73"/>
+      <c r="D228" s="73"/>
+      <c r="E228" s="43"/>
+      <c r="F228" s="69"/>
       <c r="G228" s="9"/>
       <c r="H228" s="9"/>
       <c r="I228" s="9"/>
@@ -7389,13 +7219,13 @@
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="36"/>
-      <c r="B229" s="40"/>
-      <c r="C229" s="38"/>
-      <c r="D229" s="38"/>
-      <c r="E229" s="21"/>
-      <c r="F229" s="23"/>
+    <row r="229">
+      <c r="A229" s="71"/>
+      <c r="B229" s="75"/>
+      <c r="C229" s="73"/>
+      <c r="D229" s="73"/>
+      <c r="E229" s="43"/>
+      <c r="F229" s="45"/>
       <c r="G229" s="9"/>
       <c r="H229" s="9"/>
       <c r="I229" s="9"/>
@@ -7417,13 +7247,13 @@
       <c r="Y229" s="9"/>
       <c r="Z229" s="9"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="36"/>
-      <c r="B230" s="40"/>
-      <c r="C230" s="38"/>
-      <c r="D230" s="38"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="34"/>
+    <row r="230">
+      <c r="A230" s="71"/>
+      <c r="B230" s="75"/>
+      <c r="C230" s="73"/>
+      <c r="D230" s="73"/>
+      <c r="E230" s="43"/>
+      <c r="F230" s="69"/>
       <c r="G230" s="9"/>
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
@@ -7445,13 +7275,13 @@
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="36"/>
-      <c r="B231" s="40"/>
-      <c r="C231" s="38"/>
-      <c r="D231" s="38"/>
-      <c r="E231" s="41"/>
-      <c r="F231" s="34"/>
+    <row r="231">
+      <c r="A231" s="71"/>
+      <c r="B231" s="75"/>
+      <c r="C231" s="73"/>
+      <c r="D231" s="73"/>
+      <c r="E231" s="76"/>
+      <c r="F231" s="69"/>
       <c r="G231" s="9"/>
       <c r="H231" s="9"/>
       <c r="I231" s="9"/>
@@ -7473,13 +7303,13 @@
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="36"/>
-      <c r="B232" s="40"/>
-      <c r="C232" s="38"/>
-      <c r="D232" s="38"/>
-      <c r="E232" s="21"/>
-      <c r="F232" s="34"/>
+    <row r="232">
+      <c r="A232" s="71"/>
+      <c r="B232" s="75"/>
+      <c r="C232" s="73"/>
+      <c r="D232" s="73"/>
+      <c r="E232" s="43"/>
+      <c r="F232" s="69"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
@@ -7501,13 +7331,13 @@
       <c r="Y232" s="9"/>
       <c r="Z232" s="9"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="36"/>
-      <c r="B233" s="40"/>
-      <c r="C233" s="38"/>
-      <c r="D233" s="38"/>
-      <c r="E233" s="21"/>
-      <c r="F233" s="34"/>
+    <row r="233">
+      <c r="A233" s="71"/>
+      <c r="B233" s="75"/>
+      <c r="C233" s="73"/>
+      <c r="D233" s="73"/>
+      <c r="E233" s="43"/>
+      <c r="F233" s="69"/>
       <c r="G233" s="9"/>
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
@@ -7529,13 +7359,13 @@
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A234" s="36"/>
-      <c r="B234" s="40"/>
-      <c r="C234" s="38"/>
-      <c r="D234" s="38"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="34"/>
+    <row r="234">
+      <c r="A234" s="71"/>
+      <c r="B234" s="75"/>
+      <c r="C234" s="73"/>
+      <c r="D234" s="73"/>
+      <c r="E234" s="43"/>
+      <c r="F234" s="69"/>
       <c r="G234" s="9"/>
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
@@ -7557,13 +7387,13 @@
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="22"/>
+      <c r="C235" s="44"/>
+      <c r="D235" s="44"/>
       <c r="E235" s="9"/>
-      <c r="F235" s="23"/>
+      <c r="F235" s="45"/>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
       <c r="I235" s="9"/>
@@ -7585,13 +7415,13 @@
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236">
       <c r="A236" s="10"/>
-      <c r="B236" s="4"/>
-      <c r="C236" s="20"/>
-      <c r="D236" s="18"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="42"/>
+      <c r="D236" s="30"/>
       <c r="E236" s="7"/>
-      <c r="F236" s="12"/>
+      <c r="F236" s="13"/>
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
@@ -7613,13 +7443,13 @@
       <c r="Y236" s="7"/>
       <c r="Z236" s="7"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237">
       <c r="A237" s="10"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="18"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="42"/>
+      <c r="D237" s="30"/>
       <c r="E237" s="7"/>
-      <c r="F237" s="12"/>
+      <c r="F237" s="13"/>
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
@@ -7641,13 +7471,13 @@
       <c r="Y237" s="7"/>
       <c r="Z237" s="7"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238">
       <c r="A238" s="10"/>
-      <c r="B238" s="4"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="18"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="42"/>
+      <c r="D238" s="30"/>
       <c r="E238" s="7"/>
-      <c r="F238" s="12"/>
+      <c r="F238" s="13"/>
       <c r="G238" s="7"/>
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
@@ -7669,11 +7499,11 @@
       <c r="Y238" s="7"/>
       <c r="Z238" s="7"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
+      <c r="C239" s="44"/>
+      <c r="D239" s="44"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
@@ -7697,13 +7527,13 @@
       <c r="Y239" s="9"/>
       <c r="Z239" s="9"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="4"/>
+    <row r="240">
+      <c r="A240" s="5"/>
       <c r="B240" s="10"/>
-      <c r="C240" s="42"/>
-      <c r="D240" s="18"/>
+      <c r="C240" s="77"/>
+      <c r="D240" s="30"/>
       <c r="E240" s="7"/>
-      <c r="F240" s="19"/>
+      <c r="F240" s="38"/>
       <c r="G240" s="7"/>
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
@@ -7725,13 +7555,13 @@
       <c r="Y240" s="7"/>
       <c r="Z240" s="7"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A241" s="4"/>
+    <row r="241">
+      <c r="A241" s="5"/>
       <c r="B241" s="10"/>
-      <c r="C241" s="42"/>
-      <c r="D241" s="22"/>
+      <c r="C241" s="77"/>
+      <c r="D241" s="44"/>
       <c r="E241" s="7"/>
-      <c r="F241" s="32"/>
+      <c r="F241" s="67"/>
       <c r="G241" s="9"/>
       <c r="H241" s="9"/>
       <c r="I241" s="9"/>
@@ -7753,13 +7583,13 @@
       <c r="Y241" s="9"/>
       <c r="Z241" s="9"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="4"/>
+    <row r="242">
+      <c r="A242" s="5"/>
       <c r="B242" s="10"/>
-      <c r="C242" s="42"/>
-      <c r="D242" s="22"/>
+      <c r="C242" s="77"/>
+      <c r="D242" s="44"/>
       <c r="E242" s="7"/>
-      <c r="F242" s="32"/>
+      <c r="F242" s="67"/>
       <c r="G242" s="9"/>
       <c r="H242" s="9"/>
       <c r="I242" s="9"/>
@@ -7781,11 +7611,11 @@
       <c r="Y242" s="9"/>
       <c r="Z242" s="9"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="22"/>
+      <c r="C243" s="44"/>
+      <c r="D243" s="44"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
@@ -7809,13 +7639,13 @@
       <c r="Y243" s="9"/>
       <c r="Z243" s="9"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244">
       <c r="A244" s="10"/>
-      <c r="B244" s="3"/>
+      <c r="B244" s="19"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
       <c r="E244" s="7"/>
-      <c r="F244" s="12"/>
+      <c r="F244" s="13"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
@@ -7837,13 +7667,13 @@
       <c r="Y244" s="9"/>
       <c r="Z244" s="9"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245">
       <c r="A245" s="10"/>
-      <c r="B245" s="3"/>
+      <c r="B245" s="19"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="7"/>
-      <c r="F245" s="12"/>
+      <c r="F245" s="13"/>
       <c r="G245" s="9"/>
       <c r="H245" s="9"/>
       <c r="I245" s="9"/>
@@ -7865,13 +7695,13 @@
       <c r="Y245" s="9"/>
       <c r="Z245" s="9"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246">
       <c r="A246" s="10"/>
-      <c r="B246" s="3"/>
+      <c r="B246" s="19"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="7"/>
-      <c r="F246" s="12"/>
+      <c r="F246" s="13"/>
       <c r="G246" s="9"/>
       <c r="H246" s="9"/>
       <c r="I246" s="9"/>
@@ -7893,13 +7723,13 @@
       <c r="Y246" s="9"/>
       <c r="Z246" s="9"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247">
       <c r="A247" s="10"/>
-      <c r="B247" s="3"/>
+      <c r="B247" s="19"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="7"/>
-      <c r="F247" s="27"/>
+      <c r="F247" s="62"/>
       <c r="G247" s="9"/>
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
@@ -7921,13 +7751,13 @@
       <c r="Y247" s="9"/>
       <c r="Z247" s="9"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248">
       <c r="A248" s="10"/>
-      <c r="B248" s="3"/>
+      <c r="B248" s="19"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="7"/>
-      <c r="F248" s="27"/>
+      <c r="F248" s="62"/>
       <c r="G248" s="9"/>
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
@@ -7949,13 +7779,13 @@
       <c r="Y248" s="9"/>
       <c r="Z248" s="9"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249">
       <c r="A249" s="10"/>
-      <c r="B249" s="3"/>
+      <c r="B249" s="19"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="7"/>
-      <c r="F249" s="27"/>
+      <c r="F249" s="62"/>
       <c r="G249" s="9"/>
       <c r="H249" s="9"/>
       <c r="I249" s="9"/>
@@ -7977,13 +7807,13 @@
       <c r="Y249" s="9"/>
       <c r="Z249" s="9"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="18"/>
-      <c r="E250" s="28"/>
-      <c r="F250" s="12"/>
+      <c r="C250" s="30"/>
+      <c r="D250" s="30"/>
+      <c r="E250" s="63"/>
+      <c r="F250" s="13"/>
       <c r="G250" s="9"/>
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
@@ -8005,13 +7835,13 @@
       <c r="Y250" s="9"/>
       <c r="Z250" s="9"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251">
       <c r="A251" s="10"/>
-      <c r="B251" s="4"/>
+      <c r="B251" s="5"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="7"/>
-      <c r="F251" s="43"/>
+      <c r="F251" s="78"/>
       <c r="G251" s="9"/>
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
@@ -8033,13 +7863,13 @@
       <c r="Y251" s="9"/>
       <c r="Z251" s="9"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252">
       <c r="A252" s="10"/>
-      <c r="B252" s="4"/>
+      <c r="B252" s="5"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="7"/>
-      <c r="F252" s="43"/>
+      <c r="F252" s="78"/>
       <c r="G252" s="9"/>
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
@@ -8061,13 +7891,13 @@
       <c r="Y252" s="9"/>
       <c r="Z252" s="9"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253">
       <c r="A253" s="10"/>
-      <c r="B253" s="4"/>
+      <c r="B253" s="5"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="7"/>
-      <c r="F253" s="12"/>
+      <c r="F253" s="13"/>
       <c r="G253" s="9"/>
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
@@ -8089,13 +7919,13 @@
       <c r="Y253" s="9"/>
       <c r="Z253" s="9"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254">
       <c r="A254" s="10"/>
-      <c r="B254" s="4"/>
+      <c r="B254" s="5"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="7"/>
-      <c r="F254" s="12"/>
+      <c r="F254" s="13"/>
       <c r="G254" s="9"/>
       <c r="H254" s="9"/>
       <c r="I254" s="9"/>
@@ -8117,13 +7947,13 @@
       <c r="Y254" s="9"/>
       <c r="Z254" s="9"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255">
       <c r="A255" s="10"/>
-      <c r="B255" s="4"/>
+      <c r="B255" s="5"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
       <c r="E255" s="7"/>
-      <c r="F255" s="12"/>
+      <c r="F255" s="13"/>
       <c r="G255" s="9"/>
       <c r="H255" s="9"/>
       <c r="I255" s="9"/>
@@ -8145,13 +7975,13 @@
       <c r="Y255" s="9"/>
       <c r="Z255" s="9"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256">
       <c r="A256" s="10"/>
-      <c r="B256" s="4"/>
+      <c r="B256" s="5"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
       <c r="E256" s="7"/>
-      <c r="F256" s="12"/>
+      <c r="F256" s="13"/>
       <c r="G256" s="9"/>
       <c r="H256" s="9"/>
       <c r="I256" s="9"/>
@@ -8173,13 +8003,13 @@
       <c r="Y256" s="9"/>
       <c r="Z256" s="9"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="18"/>
+      <c r="C257" s="30"/>
+      <c r="D257" s="30"/>
       <c r="E257" s="7"/>
-      <c r="F257" s="12"/>
+      <c r="F257" s="13"/>
       <c r="G257" s="9"/>
       <c r="H257" s="9"/>
       <c r="I257" s="9"/>
@@ -8201,13 +8031,13 @@
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="4"/>
-      <c r="B258" s="4"/>
+    <row r="258">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="7"/>
-      <c r="F258" s="12"/>
+      <c r="F258" s="13"/>
       <c r="G258" s="9"/>
       <c r="H258" s="9"/>
       <c r="I258" s="9"/>
@@ -8229,13 +8059,13 @@
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
+    <row r="259">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
       <c r="E259" s="7"/>
-      <c r="F259" s="12"/>
+      <c r="F259" s="13"/>
       <c r="G259" s="9"/>
       <c r="H259" s="9"/>
       <c r="I259" s="9"/>
@@ -8257,13 +8087,13 @@
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260">
       <c r="A260" s="9"/>
-      <c r="B260" s="4"/>
+      <c r="B260" s="5"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
       <c r="E260" s="7"/>
-      <c r="F260" s="12"/>
+      <c r="F260" s="13"/>
       <c r="G260" s="9"/>
       <c r="H260" s="9"/>
       <c r="I260" s="9"/>
@@ -8285,13 +8115,13 @@
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="4"/>
-      <c r="B261" s="4"/>
+    <row r="261">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="7"/>
-      <c r="F261" s="12"/>
+      <c r="F261" s="13"/>
       <c r="G261" s="9"/>
       <c r="H261" s="9"/>
       <c r="I261" s="9"/>
@@ -8313,13 +8143,13 @@
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262">
       <c r="A262" s="10"/>
-      <c r="B262" s="4"/>
+      <c r="B262" s="5"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="7"/>
-      <c r="F262" s="12"/>
+      <c r="F262" s="13"/>
       <c r="G262" s="9"/>
       <c r="H262" s="9"/>
       <c r="I262" s="9"/>
@@ -8341,13 +8171,13 @@
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263">
       <c r="A263" s="10"/>
-      <c r="B263" s="4"/>
+      <c r="B263" s="5"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="7"/>
-      <c r="F263" s="12"/>
+      <c r="F263" s="13"/>
       <c r="G263" s="9"/>
       <c r="H263" s="9"/>
       <c r="I263" s="9"/>
@@ -8369,13 +8199,13 @@
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264">
       <c r="A264" s="10"/>
-      <c r="B264" s="4"/>
+      <c r="B264" s="5"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
       <c r="E264" s="7"/>
-      <c r="F264" s="12"/>
+      <c r="F264" s="13"/>
       <c r="G264" s="9"/>
       <c r="H264" s="9"/>
       <c r="I264" s="9"/>
@@ -8397,13 +8227,13 @@
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="4"/>
-      <c r="B265" s="4"/>
+    <row r="265">
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
       <c r="E265" s="7"/>
-      <c r="F265" s="12"/>
+      <c r="F265" s="13"/>
       <c r="G265" s="9"/>
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
@@ -8425,13 +8255,13 @@
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266">
       <c r="A266" s="10"/>
-      <c r="B266" s="4"/>
+      <c r="B266" s="5"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
       <c r="E266" s="7"/>
-      <c r="F266" s="12"/>
+      <c r="F266" s="13"/>
       <c r="G266" s="9"/>
       <c r="H266" s="9"/>
       <c r="I266" s="9"/>
@@ -8453,13 +8283,13 @@
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267">
       <c r="A267" s="10"/>
-      <c r="B267" s="4"/>
+      <c r="B267" s="5"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="7"/>
-      <c r="F267" s="12"/>
+      <c r="F267" s="13"/>
       <c r="G267" s="9"/>
       <c r="H267" s="9"/>
       <c r="I267" s="9"/>
@@ -8481,13 +8311,13 @@
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268">
       <c r="A268" s="10"/>
-      <c r="B268" s="4"/>
+      <c r="B268" s="5"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
       <c r="E268" s="7"/>
-      <c r="F268" s="12"/>
+      <c r="F268" s="13"/>
       <c r="G268" s="9"/>
       <c r="H268" s="9"/>
       <c r="I268" s="9"/>
@@ -8509,13 +8339,13 @@
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269">
       <c r="A269" s="10"/>
-      <c r="B269" s="4"/>
+      <c r="B269" s="5"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
       <c r="E269" s="7"/>
-      <c r="F269" s="12"/>
+      <c r="F269" s="13"/>
       <c r="G269" s="9"/>
       <c r="H269" s="9"/>
       <c r="I269" s="9"/>
@@ -8537,13 +8367,13 @@
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270">
       <c r="A270" s="10"/>
-      <c r="B270" s="4"/>
+      <c r="B270" s="5"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
       <c r="E270" s="7"/>
-      <c r="F270" s="12"/>
+      <c r="F270" s="13"/>
       <c r="G270" s="9"/>
       <c r="H270" s="9"/>
       <c r="I270" s="9"/>
@@ -8565,13 +8395,13 @@
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271">
       <c r="A271" s="10"/>
-      <c r="B271" s="4"/>
+      <c r="B271" s="5"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
       <c r="E271" s="7"/>
-      <c r="F271" s="12"/>
+      <c r="F271" s="13"/>
       <c r="G271" s="9"/>
       <c r="H271" s="9"/>
       <c r="I271" s="9"/>
@@ -8593,13 +8423,13 @@
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272">
       <c r="A272" s="10"/>
-      <c r="B272" s="4"/>
+      <c r="B272" s="5"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
       <c r="E272" s="7"/>
-      <c r="F272" s="12"/>
+      <c r="F272" s="13"/>
       <c r="G272" s="9"/>
       <c r="H272" s="9"/>
       <c r="I272" s="9"/>
@@ -8621,13 +8451,13 @@
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273">
       <c r="A273" s="10"/>
-      <c r="B273" s="4"/>
+      <c r="B273" s="5"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
       <c r="E273" s="7"/>
-      <c r="F273" s="12"/>
+      <c r="F273" s="13"/>
       <c r="G273" s="9"/>
       <c r="H273" s="9"/>
       <c r="I273" s="9"/>
@@ -8649,13 +8479,13 @@
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274">
       <c r="A274" s="10"/>
-      <c r="B274" s="4"/>
+      <c r="B274" s="5"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
       <c r="E274" s="7"/>
-      <c r="F274" s="12"/>
+      <c r="F274" s="13"/>
       <c r="G274" s="9"/>
       <c r="H274" s="9"/>
       <c r="I274" s="9"/>
@@ -8677,13 +8507,13 @@
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275">
       <c r="A275" s="10"/>
-      <c r="B275" s="4"/>
+      <c r="B275" s="5"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="7"/>
-      <c r="F275" s="12"/>
+      <c r="F275" s="13"/>
       <c r="G275" s="9"/>
       <c r="H275" s="9"/>
       <c r="I275" s="9"/>
@@ -8705,13 +8535,13 @@
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276">
       <c r="A276" s="10"/>
-      <c r="B276" s="4"/>
+      <c r="B276" s="5"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
       <c r="E276" s="7"/>
-      <c r="F276" s="12"/>
+      <c r="F276" s="13"/>
       <c r="G276" s="9"/>
       <c r="H276" s="9"/>
       <c r="I276" s="9"/>
@@ -8733,13 +8563,13 @@
       <c r="Y276" s="9"/>
       <c r="Z276" s="9"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277">
       <c r="A277" s="10"/>
-      <c r="B277" s="4"/>
+      <c r="B277" s="5"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="7"/>
-      <c r="F277" s="12"/>
+      <c r="F277" s="13"/>
       <c r="G277" s="9"/>
       <c r="H277" s="9"/>
       <c r="I277" s="9"/>
@@ -8761,13 +8591,13 @@
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278">
       <c r="A278" s="10"/>
-      <c r="B278" s="4"/>
+      <c r="B278" s="5"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
       <c r="E278" s="7"/>
-      <c r="F278" s="12"/>
+      <c r="F278" s="13"/>
       <c r="G278" s="9"/>
       <c r="H278" s="9"/>
       <c r="I278" s="9"/>
@@ -8789,13 +8619,13 @@
       <c r="Y278" s="9"/>
       <c r="Z278" s="9"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279">
       <c r="A279" s="7"/>
-      <c r="B279" s="28"/>
-      <c r="C279" s="29"/>
-      <c r="D279" s="29"/>
-      <c r="E279" s="28"/>
-      <c r="F279" s="30"/>
+      <c r="B279" s="63"/>
+      <c r="C279" s="64"/>
+      <c r="D279" s="64"/>
+      <c r="E279" s="63"/>
+      <c r="F279" s="65"/>
       <c r="G279" s="9"/>
       <c r="H279" s="9"/>
       <c r="I279" s="9"/>
@@ -8817,13 +8647,13 @@
       <c r="Y279" s="9"/>
       <c r="Z279" s="9"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A280" s="4"/>
-      <c r="B280" s="28"/>
-      <c r="C280" s="29"/>
-      <c r="D280" s="29"/>
+    <row r="280">
+      <c r="A280" s="5"/>
+      <c r="B280" s="63"/>
+      <c r="C280" s="64"/>
+      <c r="D280" s="64"/>
       <c r="E280" s="7"/>
-      <c r="F280" s="44"/>
+      <c r="F280" s="79"/>
       <c r="G280" s="9"/>
       <c r="H280" s="9"/>
       <c r="I280" s="9"/>
@@ -8845,13 +8675,13 @@
       <c r="Y280" s="9"/>
       <c r="Z280" s="9"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A281" s="4"/>
+    <row r="281">
+      <c r="A281" s="5"/>
       <c r="B281" s="9"/>
-      <c r="C281" s="22"/>
-      <c r="D281" s="22"/>
+      <c r="C281" s="44"/>
+      <c r="D281" s="44"/>
       <c r="E281" s="7"/>
-      <c r="F281" s="32"/>
+      <c r="F281" s="67"/>
       <c r="G281" s="9"/>
       <c r="H281" s="9"/>
       <c r="I281" s="9"/>
@@ -8873,13 +8703,13 @@
       <c r="Y281" s="9"/>
       <c r="Z281" s="9"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A282" s="4"/>
+    <row r="282">
+      <c r="A282" s="5"/>
       <c r="B282" s="9"/>
-      <c r="C282" s="22"/>
-      <c r="D282" s="22"/>
+      <c r="C282" s="44"/>
+      <c r="D282" s="44"/>
       <c r="E282" s="7"/>
-      <c r="F282" s="32"/>
+      <c r="F282" s="67"/>
       <c r="G282" s="9"/>
       <c r="H282" s="9"/>
       <c r="I282" s="9"/>
@@ -8901,13 +8731,13 @@
       <c r="Y282" s="9"/>
       <c r="Z282" s="9"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A283" s="4"/>
+    <row r="283">
+      <c r="A283" s="5"/>
       <c r="B283" s="9"/>
-      <c r="C283" s="22"/>
-      <c r="D283" s="22"/>
+      <c r="C283" s="44"/>
+      <c r="D283" s="44"/>
       <c r="E283" s="7"/>
-      <c r="F283" s="32"/>
+      <c r="F283" s="67"/>
       <c r="G283" s="9"/>
       <c r="H283" s="9"/>
       <c r="I283" s="9"/>
@@ -8929,11 +8759,11 @@
       <c r="Y283" s="9"/>
       <c r="Z283" s="9"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A284" s="4"/>
+    <row r="284">
+      <c r="A284" s="5"/>
       <c r="B284" s="9"/>
-      <c r="C284" s="22"/>
-      <c r="D284" s="22"/>
+      <c r="C284" s="44"/>
+      <c r="D284" s="44"/>
       <c r="E284" s="7"/>
       <c r="F284" s="9"/>
       <c r="G284" s="9"/>
@@ -8957,11 +8787,11 @@
       <c r="Y284" s="9"/>
       <c r="Z284" s="9"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A285" s="4"/>
+    <row r="285">
+      <c r="A285" s="5"/>
       <c r="B285" s="9"/>
-      <c r="C285" s="22"/>
-      <c r="D285" s="22"/>
+      <c r="C285" s="44"/>
+      <c r="D285" s="44"/>
       <c r="E285" s="7"/>
       <c r="F285" s="9"/>
       <c r="G285" s="9"/>
@@ -8985,11 +8815,11 @@
       <c r="Y285" s="9"/>
       <c r="Z285" s="9"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A286" s="4"/>
+    <row r="286">
+      <c r="A286" s="5"/>
       <c r="B286" s="9"/>
-      <c r="C286" s="22"/>
-      <c r="D286" s="22"/>
+      <c r="C286" s="44"/>
+      <c r="D286" s="44"/>
       <c r="E286" s="7"/>
       <c r="F286" s="9"/>
       <c r="G286" s="9"/>
@@ -9013,11 +8843,11 @@
       <c r="Y286" s="9"/>
       <c r="Z286" s="9"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A287" s="4"/>
+    <row r="287">
+      <c r="A287" s="5"/>
       <c r="B287" s="9"/>
-      <c r="C287" s="22"/>
-      <c r="D287" s="22"/>
+      <c r="C287" s="44"/>
+      <c r="D287" s="44"/>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="9"/>
@@ -9041,13 +8871,13 @@
       <c r="Y287" s="9"/>
       <c r="Z287" s="9"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A288" s="4"/>
+    <row r="288">
+      <c r="A288" s="5"/>
       <c r="B288" s="9"/>
-      <c r="C288" s="22"/>
-      <c r="D288" s="22"/>
+      <c r="C288" s="44"/>
+      <c r="D288" s="44"/>
       <c r="E288" s="7"/>
-      <c r="F288" s="32"/>
+      <c r="F288" s="67"/>
       <c r="G288" s="9"/>
       <c r="H288" s="9"/>
       <c r="I288" s="9"/>
@@ -9069,13 +8899,13 @@
       <c r="Y288" s="9"/>
       <c r="Z288" s="9"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A289" s="4"/>
+    <row r="289">
+      <c r="A289" s="5"/>
       <c r="B289" s="9"/>
-      <c r="C289" s="22"/>
-      <c r="D289" s="22"/>
+      <c r="C289" s="44"/>
+      <c r="D289" s="44"/>
       <c r="E289" s="7"/>
-      <c r="F289" s="32"/>
+      <c r="F289" s="67"/>
       <c r="G289" s="9"/>
       <c r="H289" s="9"/>
       <c r="I289" s="9"/>
@@ -9097,13 +8927,13 @@
       <c r="Y289" s="9"/>
       <c r="Z289" s="9"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="4"/>
+    <row r="290">
+      <c r="A290" s="5"/>
       <c r="B290" s="9"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="22"/>
+      <c r="C290" s="44"/>
+      <c r="D290" s="44"/>
       <c r="E290" s="7"/>
-      <c r="F290" s="32"/>
+      <c r="F290" s="67"/>
       <c r="G290" s="9"/>
       <c r="H290" s="9"/>
       <c r="I290" s="9"/>
@@ -9125,13 +8955,13 @@
       <c r="Y290" s="9"/>
       <c r="Z290" s="9"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="4"/>
+    <row r="291">
+      <c r="A291" s="5"/>
       <c r="B291" s="9"/>
-      <c r="C291" s="22"/>
-      <c r="D291" s="22"/>
+      <c r="C291" s="44"/>
+      <c r="D291" s="44"/>
       <c r="E291" s="7"/>
-      <c r="F291" s="32"/>
+      <c r="F291" s="67"/>
       <c r="G291" s="9"/>
       <c r="H291" s="9"/>
       <c r="I291" s="9"/>
@@ -9153,11 +8983,11 @@
       <c r="Y291" s="9"/>
       <c r="Z291" s="9"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
-      <c r="C292" s="22"/>
-      <c r="D292" s="22"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="44"/>
       <c r="E292" s="7"/>
       <c r="F292" s="9"/>
       <c r="G292" s="9"/>
@@ -9181,11 +9011,11 @@
       <c r="Y292" s="9"/>
       <c r="Z292" s="9"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
-      <c r="C293" s="22"/>
-      <c r="D293" s="22"/>
+      <c r="C293" s="44"/>
+      <c r="D293" s="44"/>
       <c r="E293" s="7"/>
       <c r="F293" s="9"/>
       <c r="G293" s="9"/>
@@ -9209,11 +9039,11 @@
       <c r="Y293" s="9"/>
       <c r="Z293" s="9"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
-      <c r="C294" s="22"/>
-      <c r="D294" s="22"/>
+      <c r="C294" s="44"/>
+      <c r="D294" s="44"/>
       <c r="E294" s="7"/>
       <c r="F294" s="9"/>
       <c r="G294" s="9"/>
@@ -9237,11 +9067,11 @@
       <c r="Y294" s="9"/>
       <c r="Z294" s="9"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
-      <c r="C295" s="22"/>
-      <c r="D295" s="22"/>
+      <c r="C295" s="44"/>
+      <c r="D295" s="44"/>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
       <c r="G295" s="9"/>
@@ -9265,13 +9095,13 @@
       <c r="Y295" s="9"/>
       <c r="Z295" s="9"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="4"/>
+    <row r="296">
+      <c r="A296" s="5"/>
       <c r="B296" s="9"/>
-      <c r="C296" s="22"/>
-      <c r="D296" s="22"/>
+      <c r="C296" s="44"/>
+      <c r="D296" s="44"/>
       <c r="E296" s="7"/>
-      <c r="F296" s="32"/>
+      <c r="F296" s="67"/>
       <c r="G296" s="9"/>
       <c r="H296" s="9"/>
       <c r="I296" s="9"/>
@@ -9293,13 +9123,13 @@
       <c r="Y296" s="9"/>
       <c r="Z296" s="9"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
-      <c r="C297" s="22"/>
-      <c r="D297" s="22"/>
+      <c r="C297" s="44"/>
+      <c r="D297" s="44"/>
       <c r="E297" s="7"/>
-      <c r="F297" s="32"/>
+      <c r="F297" s="67"/>
       <c r="G297" s="9"/>
       <c r="H297" s="9"/>
       <c r="I297" s="9"/>
@@ -9321,13 +9151,13 @@
       <c r="Y297" s="9"/>
       <c r="Z297" s="9"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
-      <c r="C298" s="22"/>
-      <c r="D298" s="22"/>
+      <c r="C298" s="44"/>
+      <c r="D298" s="44"/>
       <c r="E298" s="7"/>
-      <c r="F298" s="45"/>
+      <c r="F298" s="80"/>
       <c r="G298" s="9"/>
       <c r="H298" s="9"/>
       <c r="I298" s="9"/>
@@ -9349,13 +9179,13 @@
       <c r="Y298" s="9"/>
       <c r="Z298" s="9"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
-      <c r="C299" s="22"/>
-      <c r="D299" s="22"/>
+      <c r="C299" s="44"/>
+      <c r="D299" s="44"/>
       <c r="E299" s="7"/>
-      <c r="F299" s="32"/>
+      <c r="F299" s="67"/>
       <c r="G299" s="9"/>
       <c r="H299" s="9"/>
       <c r="I299" s="9"/>
@@ -9377,11 +9207,11 @@
       <c r="Y299" s="9"/>
       <c r="Z299" s="9"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
-      <c r="C300" s="22"/>
-      <c r="D300" s="22"/>
+      <c r="C300" s="44"/>
+      <c r="D300" s="44"/>
       <c r="E300" s="7"/>
       <c r="F300" s="9"/>
       <c r="G300" s="9"/>
@@ -9405,11 +9235,11 @@
       <c r="Y300" s="9"/>
       <c r="Z300" s="9"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
-      <c r="C301" s="22"/>
-      <c r="D301" s="22"/>
+      <c r="C301" s="44"/>
+      <c r="D301" s="44"/>
       <c r="E301" s="7"/>
       <c r="F301" s="9"/>
       <c r="G301" s="9"/>
@@ -9433,11 +9263,11 @@
       <c r="Y301" s="9"/>
       <c r="Z301" s="9"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
-      <c r="C302" s="22"/>
-      <c r="D302" s="22"/>
+      <c r="C302" s="44"/>
+      <c r="D302" s="44"/>
       <c r="E302" s="7"/>
       <c r="F302" s="9"/>
       <c r="G302" s="9"/>
@@ -9461,13 +9291,13 @@
       <c r="Y302" s="9"/>
       <c r="Z302" s="9"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="4"/>
+    <row r="303">
+      <c r="A303" s="5"/>
       <c r="B303" s="9"/>
-      <c r="C303" s="22"/>
-      <c r="D303" s="22"/>
+      <c r="C303" s="44"/>
+      <c r="D303" s="44"/>
       <c r="E303" s="9"/>
-      <c r="F303" s="23"/>
+      <c r="F303" s="45"/>
       <c r="G303" s="9"/>
       <c r="H303" s="9"/>
       <c r="I303" s="9"/>
@@ -9489,13 +9319,13 @@
       <c r="Y303" s="9"/>
       <c r="Z303" s="9"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="4"/>
+    <row r="304">
+      <c r="A304" s="5"/>
       <c r="B304" s="9"/>
-      <c r="C304" s="22"/>
-      <c r="D304" s="22"/>
+      <c r="C304" s="44"/>
+      <c r="D304" s="44"/>
       <c r="E304" s="7"/>
-      <c r="F304" s="23"/>
+      <c r="F304" s="45"/>
       <c r="G304" s="9"/>
       <c r="H304" s="9"/>
       <c r="I304" s="9"/>
@@ -9517,13 +9347,13 @@
       <c r="Y304" s="9"/>
       <c r="Z304" s="9"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="4"/>
+    <row r="305">
+      <c r="A305" s="5"/>
       <c r="B305" s="9"/>
-      <c r="C305" s="22"/>
-      <c r="D305" s="22"/>
+      <c r="C305" s="44"/>
+      <c r="D305" s="44"/>
       <c r="E305" s="7"/>
-      <c r="F305" s="23"/>
+      <c r="F305" s="45"/>
       <c r="G305" s="9"/>
       <c r="H305" s="9"/>
       <c r="I305" s="9"/>
@@ -9545,13 +9375,13 @@
       <c r="Y305" s="9"/>
       <c r="Z305" s="9"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="4"/>
+    <row r="306">
+      <c r="A306" s="5"/>
       <c r="B306" s="9"/>
-      <c r="C306" s="22"/>
-      <c r="D306" s="22"/>
+      <c r="C306" s="44"/>
+      <c r="D306" s="44"/>
       <c r="E306" s="7"/>
-      <c r="F306" s="23"/>
+      <c r="F306" s="45"/>
       <c r="G306" s="9"/>
       <c r="H306" s="9"/>
       <c r="I306" s="9"/>
@@ -9573,13 +9403,13 @@
       <c r="Y306" s="9"/>
       <c r="Z306" s="9"/>
     </row>
-    <row r="307" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="4"/>
+    <row r="307">
+      <c r="A307" s="5"/>
       <c r="B307" s="9"/>
-      <c r="C307" s="22"/>
-      <c r="D307" s="22"/>
+      <c r="C307" s="44"/>
+      <c r="D307" s="44"/>
       <c r="E307" s="7"/>
-      <c r="F307" s="23"/>
+      <c r="F307" s="45"/>
       <c r="G307" s="9"/>
       <c r="H307" s="9"/>
       <c r="I307" s="9"/>
@@ -9601,13 +9431,13 @@
       <c r="Y307" s="9"/>
       <c r="Z307" s="9"/>
     </row>
-    <row r="308" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A308" s="4"/>
+    <row r="308">
+      <c r="A308" s="5"/>
       <c r="B308" s="9"/>
-      <c r="C308" s="22"/>
-      <c r="D308" s="22"/>
+      <c r="C308" s="44"/>
+      <c r="D308" s="44"/>
       <c r="E308" s="7"/>
-      <c r="F308" s="23"/>
+      <c r="F308" s="45"/>
       <c r="G308" s="9"/>
       <c r="H308" s="9"/>
       <c r="I308" s="9"/>
@@ -9629,13 +9459,13 @@
       <c r="Y308" s="9"/>
       <c r="Z308" s="9"/>
     </row>
-    <row r="309" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A309" s="4"/>
+    <row r="309">
+      <c r="A309" s="5"/>
       <c r="B309" s="9"/>
-      <c r="C309" s="22"/>
-      <c r="D309" s="22"/>
+      <c r="C309" s="44"/>
+      <c r="D309" s="44"/>
       <c r="E309" s="7"/>
-      <c r="F309" s="23"/>
+      <c r="F309" s="45"/>
       <c r="G309" s="9"/>
       <c r="H309" s="9"/>
       <c r="I309" s="9"/>
@@ -9657,13 +9487,13 @@
       <c r="Y309" s="9"/>
       <c r="Z309" s="9"/>
     </row>
-    <row r="310" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
-      <c r="C310" s="22"/>
-      <c r="D310" s="22"/>
+      <c r="C310" s="44"/>
+      <c r="D310" s="44"/>
       <c r="E310" s="7"/>
-      <c r="F310" s="23"/>
+      <c r="F310" s="45"/>
       <c r="G310" s="9"/>
       <c r="H310" s="9"/>
       <c r="I310" s="9"/>
@@ -9685,13 +9515,13 @@
       <c r="Y310" s="9"/>
       <c r="Z310" s="9"/>
     </row>
-    <row r="311" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="4"/>
+    <row r="311">
+      <c r="A311" s="5"/>
       <c r="B311" s="9"/>
-      <c r="C311" s="22"/>
-      <c r="D311" s="22"/>
+      <c r="C311" s="44"/>
+      <c r="D311" s="44"/>
       <c r="E311" s="9"/>
-      <c r="F311" s="23"/>
+      <c r="F311" s="45"/>
       <c r="G311" s="9"/>
       <c r="H311" s="9"/>
       <c r="I311" s="9"/>
@@ -9714,6 +9544,6 @@
       <c r="Z311" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RS01SUM1/Omaha_Cal_Info_RS01SUM1_00001.xlsx
+++ b/RS01SUM1/Omaha_Cal_Info_RS01SUM1_00001.xlsx
@@ -1,26 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="270" yWindow="510" windowWidth="24615" windowHeight="13740"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Asset_Cal_Info" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Moorings" sheetId="2" r:id="rId4"/>
+    <sheet name="Moorings" sheetId="2" r:id="rId1"/>
+    <sheet name="Asset_Cal_Info" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Ref Des</t>
   </si>
   <si>
-    <t>Mooring Serial Number</t>
+    <t>Serial Number</t>
   </si>
   <si>
     <t>Deployment Number</t>
+  </si>
+  <si>
+    <t>Anchor Launch Date</t>
+  </si>
+  <si>
+    <t>Anchor Launch Time</t>
+  </si>
+  <si>
+    <t>Recover Date</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Water Depth</t>
+  </si>
+  <si>
+    <t>Cruise Number</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>RS01SUM1-LJ01B</t>
+  </si>
+  <si>
+    <t>SN0004</t>
+  </si>
+  <si>
+    <t>TN-313</t>
+  </si>
+  <si>
+    <t>Mooring Serial Number</t>
   </si>
   <si>
     <t>Sensor Serial Number</t>
@@ -33,9 +72,6 @@
   </si>
   <si>
     <t>RS01SUM1-LJ01B-05-OBSBBA101</t>
-  </si>
-  <si>
-    <t>SN0004</t>
   </si>
   <si>
     <t xml:space="preserve">T1077/T5CQ6 </t>
@@ -77,122 +113,110 @@
     <t>CC_lon</t>
   </si>
   <si>
-    <t>RS01SUM1-MJ01B-12-ADCPSK101</t>
+    <t>44° 34.151' N</t>
   </si>
   <si>
-    <t>CC_scale_factor1</t>
-  </si>
-  <si>
-    <t>CC_scale_factor2</t>
-  </si>
-  <si>
-    <t>CC_scale_factor3</t>
-  </si>
-  <si>
-    <t>CC_scale_factor4</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Anchor Launch Date</t>
-  </si>
-  <si>
-    <t>Anchor Launch Time</t>
-  </si>
-  <si>
-    <t>Recover Date</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Water Depth</t>
-  </si>
-  <si>
-    <t>Cruise Number</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>RS01SUM1-LJ01B</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>44° 34' 09.06" N</t>
-  </si>
-  <si>
-    <t>125° 08' 52.98" W</t>
-  </si>
-  <si>
-    <t>TN-313</t>
+    <t>125° 08.883' W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM\-YY"/>
-    <numFmt numFmtId="166" formatCode="HH:MM:SS\ AM/PM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF222222"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF0070C0"/>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -200,7 +224,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -221,6 +245,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -233,6 +258,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -243,2591 +269,2735 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="86">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>26</v>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>27</v>
+      <c r="D1" s="64" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>28</v>
+      <c r="E1" s="64" t="s">
+        <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
-        <v>29</v>
+      <c r="F1" s="64" t="s">
+        <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>30</v>
+      <c r="G1" s="64" t="s">
+        <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
-        <v>31</v>
+      <c r="H1" s="64" t="s">
+        <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="66">
+        <v>1</v>
+      </c>
+      <c r="D2" s="67">
+        <v>41888</v>
+      </c>
+      <c r="E2" s="68">
+        <v>0.6866782407407408</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="H2" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="49" t="s">
-        <v>34</v>
+      <c r="I2" s="69">
+        <v>776</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="51" t="s">
-        <v>35</v>
+      <c r="J2" s="69" t="s">
+        <v>13</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>7</v>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71">
+        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
+        <v>44.569183333333335</v>
       </c>
-      <c r="C2" s="53">
-        <v>1.0</v>
+      <c r="M2" s="71">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
+        <v>-125.14805</v>
       </c>
-      <c r="D2" s="54">
-        <v>41888.0</v>
-      </c>
-      <c r="E2" s="55">
-        <v>0.6866782407407408</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="57">
-        <v>776.0</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="46"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.86"/>
-    <col customWidth="1" min="5" max="5" width="28.14"/>
-    <col customWidth="1" min="6" max="6" width="59.29"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="5" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+    </row>
+    <row r="3" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="74">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="D3" s="74" t="s">
+        <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+    </row>
+    <row r="4" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>299465.0</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="B4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
+      <c r="C4" s="74">
+        <v>1</v>
       </c>
-      <c r="C6" s="12">
-        <v>1.0</v>
+      <c r="D4" s="74">
+        <v>299465</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="23">
-        <v>10306.0</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="25">
-        <v>44.5691033333333</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>10306.0</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="25">
-        <v>-125.147938333333</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="28" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+    </row>
+    <row r="5" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>7</v>
+      <c r="B5" s="73" t="s">
+        <v>12</v>
       </c>
-      <c r="C13" s="29">
-        <v>1.0</v>
+      <c r="C5" s="74">
+        <v>1</v>
       </c>
-      <c r="D13" s="30">
-        <v>18975.0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="17">
-        <v>44.5698566666666</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="30">
-        <v>18975.0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="17">
-        <v>-125.146831666666</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="30">
-        <v>18975.0</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D5" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="31">
-        <v>18975.0</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+    </row>
+    <row r="6" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="13">
-        <v>0.45</v>
+      <c r="B6" s="73" t="s">
+        <v>12</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="28" t="s">
-        <v>21</v>
+      <c r="C6" s="74">
+        <v>1</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="30">
-        <v>18975.0</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D6" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="30">
-        <v>18975.0</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+    </row>
+    <row r="7" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="13">
-        <v>0.45</v>
+      <c r="B7" s="73" t="s">
+        <v>12</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="33"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="24"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="24"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="10"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="10"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5"/>
+      <c r="C7" s="74">
+        <v>1</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+    </row>
+    <row r="8" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="74">
+        <v>1</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+    </row>
+    <row r="9" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+    </row>
+    <row r="10" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="74">
+        <v>1</v>
+      </c>
+      <c r="D10" s="74">
+        <v>10306</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="76">
+        <v>44.569183333333335</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+    </row>
+    <row r="11" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="74">
+        <v>1</v>
+      </c>
+      <c r="D11" s="74">
+        <v>10306</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="77">
+        <v>-125.14805</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+    </row>
+    <row r="12" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+    </row>
+    <row r="13" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+    </row>
+    <row r="14" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+    </row>
+    <row r="15" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+    </row>
+    <row r="16" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="53"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+    </row>
+    <row r="17" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+    </row>
+    <row r="18" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+    </row>
+    <row r="19" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+    </row>
+    <row r="20" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+    </row>
+    <row r="21" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+    </row>
+    <row r="22" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+    </row>
+    <row r="23" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+    </row>
+    <row r="24" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+    </row>
+    <row r="25" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+    </row>
+    <row r="26" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+    </row>
+    <row r="27" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+    </row>
+    <row r="28" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+    </row>
+    <row r="29" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+    </row>
+    <row r="30" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+    </row>
+    <row r="31" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+    </row>
+    <row r="32" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+    </row>
+    <row r="33" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+    </row>
+    <row r="34" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+    </row>
+    <row r="35" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+    </row>
+    <row r="36" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+    </row>
+    <row r="37" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+    </row>
+    <row r="38" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="47"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+    </row>
+    <row r="39" spans="1:26" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="49"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+    </row>
+    <row r="40" spans="1:26" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="49"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="57"/>
+    </row>
+    <row r="41" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+    </row>
+    <row r="42" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="49"/>
+    </row>
+    <row r="43" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+    </row>
+    <row r="44" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="49"/>
+      <c r="Z44" s="49"/>
+    </row>
+    <row r="45" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="49"/>
+      <c r="Z45" s="49"/>
+    </row>
+    <row r="46" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+    </row>
+    <row r="47" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+    </row>
+    <row r="48" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+    </row>
+    <row r="49" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="49"/>
+    </row>
+    <row r="50" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="49"/>
+    </row>
+    <row r="51" spans="1:26" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="53"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+    </row>
+    <row r="52" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="49"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+    </row>
+    <row r="53" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="49"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+    </row>
+    <row r="54" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+    </row>
+    <row r="55" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="47"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+    </row>
+    <row r="56" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="47"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="51"/>
+    </row>
+    <row r="57" spans="1:26" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="53"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51"/>
+    </row>
+    <row r="58" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
+      <c r="W58" s="51"/>
+      <c r="X58" s="51"/>
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="51"/>
+    </row>
+    <row r="59" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="51"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="51"/>
+      <c r="Z59" s="51"/>
+    </row>
+    <row r="60" spans="1:26" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="51"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="51"/>
+    </row>
+    <row r="61" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+    </row>
+    <row r="62" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+    </row>
+    <row r="63" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="47"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="51"/>
+      <c r="W63" s="51"/>
+      <c r="X63" s="51"/>
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="51"/>
+    </row>
+    <row r="64" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+      <c r="V64" s="51"/>
+      <c r="W64" s="51"/>
+      <c r="X64" s="51"/>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="51"/>
+    </row>
+    <row r="65" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="51"/>
+      <c r="W65" s="51"/>
+      <c r="X65" s="51"/>
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="51"/>
+    </row>
+    <row r="66" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="47"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
+      <c r="V66" s="51"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="51"/>
+    </row>
+    <row r="67" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
+      <c r="T67" s="51"/>
+      <c r="U67" s="51"/>
+      <c r="V67" s="51"/>
+      <c r="W67" s="51"/>
+      <c r="X67" s="51"/>
+      <c r="Y67" s="51"/>
+      <c r="Z67" s="51"/>
+    </row>
+    <row r="68" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="51"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="51"/>
+      <c r="U68" s="51"/>
+      <c r="V68" s="51"/>
+      <c r="W68" s="51"/>
+      <c r="X68" s="51"/>
+      <c r="Y68" s="51"/>
+      <c r="Z68" s="51"/>
+    </row>
+    <row r="69" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="47"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="51"/>
+      <c r="W69" s="51"/>
+      <c r="X69" s="51"/>
+      <c r="Y69" s="51"/>
+      <c r="Z69" s="51"/>
+    </row>
+    <row r="70" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="51"/>
+      <c r="Q70" s="51"/>
+      <c r="R70" s="51"/>
+      <c r="S70" s="51"/>
+      <c r="T70" s="51"/>
+      <c r="U70" s="51"/>
+      <c r="V70" s="51"/>
+      <c r="W70" s="51"/>
+      <c r="X70" s="51"/>
+      <c r="Y70" s="51"/>
+      <c r="Z70" s="51"/>
+    </row>
+    <row r="71" spans="1:26" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="51"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="51"/>
+      <c r="U71" s="51"/>
+      <c r="V71" s="51"/>
+      <c r="W71" s="51"/>
+      <c r="X71" s="51"/>
+      <c r="Y71" s="51"/>
+      <c r="Z71" s="51"/>
+    </row>
+    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="7"/>
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
@@ -2851,11 +3021,11 @@
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
     </row>
-    <row r="73">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="44"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="7"/>
       <c r="F73" s="8"/>
       <c r="G73" s="9"/>
@@ -2879,11 +3049,11 @@
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
     </row>
-    <row r="74">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="44"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="7"/>
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
@@ -2907,13 +3077,13 @@
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
     </row>
-    <row r="75">
-      <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
+    <row r="75" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="13"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="17"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="15"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -2935,11 +3105,11 @@
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
     </row>
-    <row r="76">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="7"/>
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
@@ -2963,11 +3133,11 @@
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
     </row>
-    <row r="77">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
+    <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="7"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
@@ -2991,13 +3161,13 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
     </row>
-    <row r="78">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
+    <row r="78" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="13"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="17"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="15"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -3019,11 +3189,11 @@
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
     </row>
-    <row r="79">
-      <c r="A79" s="5"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="7"/>
       <c r="F79" s="8"/>
       <c r="G79" s="9"/>
@@ -3047,11 +3217,11 @@
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
     </row>
-    <row r="80">
-      <c r="A80" s="5"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+    <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="7"/>
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
@@ -3075,13 +3245,13 @@
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
     </row>
-    <row r="81">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
+    <row r="81" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="13"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="17"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="15"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -3103,11 +3273,11 @@
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
     </row>
-    <row r="82">
-      <c r="A82" s="5"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
+    <row r="82" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="7"/>
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
@@ -3131,11 +3301,11 @@
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
     </row>
-    <row r="83">
-      <c r="A83" s="5"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
+    <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="7"/>
       <c r="F83" s="8"/>
       <c r="G83" s="9"/>
@@ -3159,13 +3329,13 @@
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
     </row>
-    <row r="84">
-      <c r="A84" s="15"/>
-      <c r="B84" s="19"/>
+    <row r="84" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="13"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="17"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="15"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -3187,13 +3357,13 @@
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
     </row>
-    <row r="85">
-      <c r="A85" s="15"/>
-      <c r="B85" s="46"/>
+    <row r="85" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="13"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="47"/>
+      <c r="F85" s="24"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -3215,13 +3385,13 @@
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
     </row>
-    <row r="86">
-      <c r="A86" s="15"/>
-      <c r="B86" s="46"/>
+    <row r="86" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="13"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="47"/>
+      <c r="F86" s="24"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -3243,13 +3413,13 @@
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
     </row>
-    <row r="87">
-      <c r="A87" s="15"/>
-      <c r="B87" s="46"/>
+    <row r="87" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="13"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="47"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="24"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -3271,13 +3441,13 @@
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
     </row>
-    <row r="88">
-      <c r="A88" s="15"/>
-      <c r="B88" s="46"/>
+    <row r="88" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="13"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="47"/>
+      <c r="F88" s="24"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
@@ -3299,13 +3469,13 @@
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
     </row>
-    <row r="89">
-      <c r="A89" s="15"/>
-      <c r="B89" s="46"/>
+    <row r="89" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="13"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="47"/>
+      <c r="F89" s="24"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
@@ -3327,13 +3497,13 @@
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
     </row>
-    <row r="90">
-      <c r="A90" s="15"/>
-      <c r="B90" s="19"/>
+    <row r="90" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="13"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="17"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
@@ -3355,13 +3525,13 @@
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
     </row>
-    <row r="91">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
+    <row r="91" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="48"/>
+      <c r="F91" s="25"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
@@ -3383,13 +3553,13 @@
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
     </row>
-    <row r="92">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
+    <row r="92" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="48"/>
+      <c r="F92" s="25"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -3411,13 +3581,13 @@
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
     </row>
-    <row r="93">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="48"/>
+    <row r="93" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="25"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
@@ -3439,13 +3609,13 @@
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
     </row>
-    <row r="94">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
+    <row r="94" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="48"/>
+      <c r="F94" s="25"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
@@ -3467,13 +3637,13 @@
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
     </row>
-    <row r="95">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
+    <row r="95" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="48"/>
+      <c r="F95" s="25"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
@@ -3495,13 +3665,13 @@
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
     </row>
-    <row r="96">
-      <c r="A96" s="15"/>
-      <c r="B96" s="19"/>
+    <row r="96" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="13"/>
+      <c r="B96" s="3"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="17"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="15"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -3523,13 +3693,13 @@
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
     </row>
-    <row r="97">
-      <c r="A97" s="15"/>
-      <c r="B97" s="19"/>
+    <row r="97" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="13"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="17"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="15"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
@@ -3551,13 +3721,13 @@
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
     </row>
-    <row r="98">
-      <c r="A98" s="15"/>
-      <c r="B98" s="46"/>
+    <row r="98" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="13"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="48"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="25"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
@@ -3579,13 +3749,13 @@
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
     </row>
-    <row r="99">
-      <c r="A99" s="15"/>
-      <c r="B99" s="46"/>
+    <row r="99" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="13"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="17"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="15"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
@@ -3607,13 +3777,13 @@
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
     </row>
-    <row r="100">
-      <c r="A100" s="15"/>
-      <c r="B100" s="19"/>
+    <row r="100" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="13"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="17"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="15"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -3635,13 +3805,13 @@
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
     </row>
-    <row r="101">
-      <c r="A101" s="5"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="48"/>
+    <row r="101" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="4"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="25"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
@@ -3663,13 +3833,13 @@
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
     </row>
-    <row r="102">
-      <c r="A102" s="5"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="48"/>
+    <row r="102" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="4"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="25"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
@@ -3691,13 +3861,13 @@
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
     </row>
-    <row r="103">
-      <c r="A103" s="5"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="48"/>
+    <row r="103" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="4"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="25"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -3719,13 +3889,13 @@
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
     </row>
-    <row r="104">
-      <c r="A104" s="15"/>
-      <c r="B104" s="19"/>
+    <row r="104" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="13"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="17"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="15"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -3747,13 +3917,13 @@
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
-      <c r="B105" s="5"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="13"/>
+      <c r="F105" s="12"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
@@ -3775,13 +3945,13 @@
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
     </row>
-    <row r="106">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+    <row r="106" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="13"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -3803,13 +3973,13 @@
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
     </row>
-    <row r="107">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+    <row r="107" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="13"/>
+      <c r="F107" s="12"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -3831,13 +4001,13 @@
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
     </row>
-    <row r="108">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+    <row r="108" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="13"/>
+      <c r="F108" s="12"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
@@ -3859,13 +4029,13 @@
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
     </row>
-    <row r="109">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+    <row r="109" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="13"/>
+      <c r="F109" s="12"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
@@ -3887,13 +4057,13 @@
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
     </row>
-    <row r="110">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="52"/>
+      <c r="F110" s="26"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
@@ -3915,13 +4085,13 @@
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
     </row>
-    <row r="111">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
+    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="13"/>
+      <c r="F111" s="12"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
@@ -3943,13 +4113,13 @@
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
     </row>
-    <row r="112">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
-      <c r="F112" s="13"/>
+      <c r="F112" s="12"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
@@ -3971,13 +4141,13 @@
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
     </row>
-    <row r="113">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+    <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
-      <c r="F113" s="13"/>
+      <c r="F113" s="12"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
@@ -3999,13 +4169,13 @@
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
     </row>
-    <row r="114">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+    <row r="114" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
-      <c r="F114" s="13"/>
+      <c r="F114" s="12"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
@@ -4027,13 +4197,13 @@
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
     </row>
-    <row r="115">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
+    <row r="115" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="7"/>
-      <c r="F115" s="13"/>
+      <c r="F115" s="12"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -4055,13 +4225,13 @@
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
     </row>
-    <row r="116">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
+    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
-      <c r="F116" s="13"/>
+      <c r="F116" s="12"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
@@ -4083,13 +4253,13 @@
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
     </row>
-    <row r="117">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
+    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
-      <c r="F117" s="13"/>
+      <c r="F117" s="12"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -4111,13 +4281,13 @@
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
     </row>
-    <row r="118">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
+    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
-      <c r="F118" s="13"/>
+      <c r="F118" s="12"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
@@ -4139,13 +4309,13 @@
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
     </row>
-    <row r="119">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
+    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
-      <c r="F119" s="13"/>
+      <c r="F119" s="12"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
@@ -4167,13 +4337,13 @@
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
     </row>
-    <row r="120">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
+    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="13"/>
+      <c r="F120" s="12"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
@@ -4195,13 +4365,13 @@
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
     </row>
-    <row r="121">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
+    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="13"/>
+      <c r="F121" s="12"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
@@ -4223,13 +4393,13 @@
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
     </row>
-    <row r="122">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
+    <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="7"/>
-      <c r="F122" s="13"/>
+      <c r="F122" s="12"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
@@ -4251,13 +4421,13 @@
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
     </row>
-    <row r="123">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+    <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="7"/>
-      <c r="F123" s="13"/>
+      <c r="F123" s="12"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
@@ -4279,13 +4449,13 @@
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
     </row>
-    <row r="124">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
+    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="13"/>
+      <c r="F124" s="12"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -4307,13 +4477,13 @@
       <c r="Y124" s="9"/>
       <c r="Z124" s="9"/>
     </row>
-    <row r="125">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
+    <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="7"/>
-      <c r="F125" s="13"/>
+      <c r="F125" s="12"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
@@ -4335,13 +4505,13 @@
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
     </row>
-    <row r="126">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
+    <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="13"/>
+      <c r="F126" s="12"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
@@ -4363,13 +4533,13 @@
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
     </row>
-    <row r="127">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
+    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="7"/>
-      <c r="F127" s="62"/>
+      <c r="F127" s="27"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -4391,13 +4561,13 @@
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
     </row>
-    <row r="128">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
+    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="7"/>
-      <c r="F128" s="62"/>
+      <c r="F128" s="27"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
@@ -4419,13 +4589,13 @@
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
     </row>
-    <row r="129">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
+    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
-      <c r="F129" s="62"/>
+      <c r="F129" s="27"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
@@ -4447,13 +4617,13 @@
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
     </row>
-    <row r="130">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
+    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="7"/>
-      <c r="F130" s="62"/>
+      <c r="F130" s="27"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
@@ -4475,13 +4645,13 @@
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
     </row>
-    <row r="131">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="62"/>
+      <c r="F131" s="27"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
@@ -4503,13 +4673,13 @@
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
       <c r="E132" s="7"/>
-      <c r="F132" s="13"/>
+      <c r="F132" s="12"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
@@ -4531,11 +4701,11 @@
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
-      <c r="B133" s="5"/>
+      <c r="B133" s="4"/>
       <c r="C133" s="6"/>
-      <c r="D133" s="12"/>
+      <c r="D133" s="11"/>
       <c r="E133" s="7"/>
       <c r="F133" s="8"/>
       <c r="G133" s="9"/>
@@ -4559,11 +4729,11 @@
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
-      <c r="B134" s="19"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="12"/>
+      <c r="D134" s="11"/>
       <c r="E134" s="7"/>
       <c r="F134" s="8"/>
       <c r="G134" s="9"/>
@@ -4587,13 +4757,13 @@
       <c r="Y134" s="9"/>
       <c r="Z134" s="9"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="7"/>
-      <c r="F135" s="13"/>
+      <c r="F135" s="12"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
@@ -4615,11 +4785,11 @@
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
     </row>
-    <row r="136">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
+    <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="30"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="7"/>
       <c r="F136" s="8"/>
       <c r="G136" s="9"/>
@@ -4643,11 +4813,11 @@
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
     </row>
-    <row r="137">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
+    <row r="137" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="30"/>
+      <c r="D137" s="18"/>
       <c r="E137" s="7"/>
       <c r="F137" s="8"/>
       <c r="G137" s="9"/>
@@ -4671,13 +4841,13 @@
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
     </row>
-    <row r="138">
-      <c r="A138" s="5"/>
+    <row r="138" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="4"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="13"/>
+      <c r="F138" s="12"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
@@ -4699,11 +4869,11 @@
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
     </row>
-    <row r="139">
-      <c r="A139" s="5"/>
+    <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="4"/>
       <c r="B139" s="10"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="30"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="7"/>
       <c r="F139" s="8"/>
       <c r="G139" s="9"/>
@@ -4727,11 +4897,11 @@
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
     </row>
-    <row r="140">
-      <c r="A140" s="5"/>
+    <row r="140" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="4"/>
       <c r="B140" s="10"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="30"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="7"/>
       <c r="F140" s="8"/>
       <c r="G140" s="9"/>
@@ -4755,13 +4925,13 @@
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="13"/>
+      <c r="F141" s="12"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
@@ -4783,9 +4953,9 @@
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
-      <c r="B142" s="5"/>
+      <c r="B142" s="4"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="7"/>
@@ -4811,9 +4981,9 @@
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
-      <c r="B143" s="5"/>
+      <c r="B143" s="4"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="7"/>
@@ -4839,13 +5009,13 @@
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
-      <c r="B144" s="63"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="63"/>
-      <c r="F144" s="65"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="30"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -4867,11 +5037,11 @@
       <c r="Y144" s="9"/>
       <c r="Z144" s="9"/>
     </row>
-    <row r="145">
-      <c r="A145" s="5"/>
-      <c r="B145" s="66"/>
+    <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="4"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="64"/>
+      <c r="D145" s="29"/>
       <c r="E145" s="7"/>
       <c r="F145" s="8"/>
       <c r="G145" s="9"/>
@@ -4895,11 +5065,11 @@
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
     </row>
-    <row r="146">
-      <c r="A146" s="5"/>
-      <c r="B146" s="66"/>
+    <row r="146" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="4"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="6"/>
-      <c r="D146" s="64"/>
+      <c r="D146" s="29"/>
       <c r="E146" s="7"/>
       <c r="F146" s="8"/>
       <c r="G146" s="9"/>
@@ -4923,13 +5093,13 @@
       <c r="Y146" s="9"/>
       <c r="Z146" s="9"/>
     </row>
-    <row r="147">
-      <c r="A147" s="5"/>
-      <c r="B147" s="63"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="63"/>
-      <c r="F147" s="65"/>
+    <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="4"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="30"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
@@ -4951,11 +5121,11 @@
       <c r="Y147" s="9"/>
       <c r="Z147" s="9"/>
     </row>
-    <row r="148">
-      <c r="A148" s="5"/>
-      <c r="B148" s="66"/>
+    <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="4"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="6"/>
-      <c r="D148" s="64"/>
+      <c r="D148" s="29"/>
       <c r="E148" s="7"/>
       <c r="F148" s="8"/>
       <c r="G148" s="9"/>
@@ -4979,11 +5149,11 @@
       <c r="Y148" s="9"/>
       <c r="Z148" s="9"/>
     </row>
-    <row r="149">
-      <c r="A149" s="5"/>
-      <c r="B149" s="66"/>
+    <row r="149" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="4"/>
+      <c r="B149" s="31"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="64"/>
+      <c r="D149" s="29"/>
       <c r="E149" s="7"/>
       <c r="F149" s="8"/>
       <c r="G149" s="9"/>
@@ -5007,13 +5177,13 @@
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
     </row>
-    <row r="150">
-      <c r="A150" s="5"/>
-      <c r="B150" s="63"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="63"/>
-      <c r="F150" s="65"/>
+    <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="4"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="30"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
@@ -5035,11 +5205,11 @@
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
     </row>
-    <row r="151">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
+    <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="64"/>
+      <c r="D151" s="29"/>
       <c r="E151" s="7"/>
       <c r="F151" s="8"/>
       <c r="G151" s="9"/>
@@ -5063,11 +5233,11 @@
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
     </row>
-    <row r="152">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
+    <row r="152" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
       <c r="C152" s="6"/>
-      <c r="D152" s="64"/>
+      <c r="D152" s="29"/>
       <c r="E152" s="7"/>
       <c r="F152" s="8"/>
       <c r="G152" s="9"/>
@@ -5091,13 +5261,13 @@
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
-      <c r="B153" s="63"/>
-      <c r="C153" s="64"/>
-      <c r="D153" s="64"/>
-      <c r="E153" s="63"/>
-      <c r="F153" s="65"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="30"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
@@ -5119,9 +5289,9 @@
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
-      <c r="B154" s="19"/>
+      <c r="B154" s="3"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
@@ -5147,9 +5317,9 @@
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
-      <c r="B155" s="19"/>
+      <c r="B155" s="3"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
@@ -5175,13 +5345,13 @@
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
-      <c r="B156" s="63"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="63"/>
-      <c r="F156" s="65"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="30"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
@@ -5203,11 +5373,11 @@
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
     </row>
-    <row r="157">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
+    <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
       <c r="C157" s="6"/>
-      <c r="D157" s="64"/>
+      <c r="D157" s="29"/>
       <c r="E157" s="7"/>
       <c r="F157" s="8"/>
       <c r="G157" s="9"/>
@@ -5231,11 +5401,11 @@
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
     </row>
-    <row r="158">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
+    <row r="158" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
       <c r="C158" s="6"/>
-      <c r="D158" s="64"/>
+      <c r="D158" s="29"/>
       <c r="E158" s="7"/>
       <c r="F158" s="8"/>
       <c r="G158" s="9"/>
@@ -5259,11 +5429,11 @@
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="44"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
@@ -5287,11 +5457,11 @@
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
     </row>
-    <row r="160">
-      <c r="A160" s="5"/>
+    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="4"/>
       <c r="B160" s="9"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="44"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
@@ -5315,11 +5485,11 @@
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="44"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -5343,11 +5513,11 @@
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="44"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -5371,13 +5541,13 @@
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
     </row>
-    <row r="163">
-      <c r="A163" s="15"/>
-      <c r="B163" s="5"/>
+    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="13"/>
+      <c r="B163" s="4"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
-      <c r="F163" s="13"/>
+      <c r="F163" s="12"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
@@ -5399,13 +5569,13 @@
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
     </row>
-    <row r="164">
-      <c r="A164" s="15"/>
-      <c r="B164" s="5"/>
+    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="13"/>
+      <c r="B164" s="4"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="7"/>
-      <c r="F164" s="13"/>
+      <c r="F164" s="12"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
@@ -5427,13 +5597,13 @@
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
     </row>
-    <row r="165">
-      <c r="A165" s="15"/>
-      <c r="B165" s="5"/>
+    <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="13"/>
+      <c r="B165" s="4"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="7"/>
-      <c r="F165" s="13"/>
+      <c r="F165" s="12"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
@@ -5455,13 +5625,13 @@
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
     </row>
-    <row r="166">
-      <c r="A166" s="15"/>
-      <c r="B166" s="5"/>
+    <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="13"/>
+      <c r="B166" s="4"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="7"/>
-      <c r="F166" s="13"/>
+      <c r="F166" s="12"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
@@ -5483,11 +5653,11 @@
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="44"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -5511,9 +5681,9 @@
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
-      <c r="B168" s="5"/>
+      <c r="B168" s="4"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="7"/>
@@ -5539,9 +5709,9 @@
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
-      <c r="B169" s="5"/>
+      <c r="B169" s="4"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="7"/>
@@ -5567,13 +5737,13 @@
       <c r="Y169" s="9"/>
       <c r="Z169" s="9"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
-      <c r="B170" s="5"/>
+      <c r="B170" s="4"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="7"/>
-      <c r="F170" s="13"/>
+      <c r="F170" s="12"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
@@ -5595,13 +5765,13 @@
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
-      <c r="B171" s="5"/>
+      <c r="B171" s="4"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
-      <c r="F171" s="13"/>
+      <c r="F171" s="12"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
@@ -5623,13 +5793,13 @@
       <c r="Y171" s="9"/>
       <c r="Z171" s="9"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
-      <c r="B172" s="5"/>
+      <c r="B172" s="4"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="7"/>
-      <c r="F172" s="13"/>
+      <c r="F172" s="12"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
@@ -5651,13 +5821,13 @@
       <c r="Y172" s="9"/>
       <c r="Z172" s="9"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
-      <c r="B173" s="5"/>
+      <c r="B173" s="4"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="7"/>
-      <c r="F173" s="13"/>
+      <c r="F173" s="12"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
@@ -5679,13 +5849,13 @@
       <c r="Y173" s="9"/>
       <c r="Z173" s="9"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
-      <c r="B174" s="5"/>
+      <c r="B174" s="4"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
-      <c r="F174" s="13"/>
+      <c r="F174" s="12"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
@@ -5707,10 +5877,10 @@
       <c r="Y174" s="9"/>
       <c r="Z174" s="9"/>
     </row>
-    <row r="175">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="12"/>
+    <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="11"/>
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
       <c r="F175" s="8"/>
@@ -5735,10 +5905,10 @@
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
     </row>
-    <row r="176">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="12"/>
+    <row r="176" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="11"/>
       <c r="D176" s="6"/>
       <c r="E176" s="7"/>
       <c r="F176" s="8"/>
@@ -5763,13 +5933,13 @@
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
     </row>
-    <row r="177">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="12"/>
+    <row r="177" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="11"/>
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
-      <c r="F177" s="13"/>
+      <c r="F177" s="12"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
@@ -5791,13 +5961,13 @@
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
     </row>
-    <row r="178">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="12"/>
+    <row r="178" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="11"/>
       <c r="D178" s="6"/>
       <c r="E178" s="7"/>
-      <c r="F178" s="13"/>
+      <c r="F178" s="12"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
@@ -5819,13 +5989,13 @@
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
     </row>
-    <row r="179">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="12"/>
+    <row r="179" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="11"/>
       <c r="D179" s="6"/>
       <c r="E179" s="7"/>
-      <c r="F179" s="13"/>
+      <c r="F179" s="12"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
@@ -5847,13 +6017,13 @@
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
     </row>
-    <row r="180">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="44"/>
+    <row r="180" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="22"/>
       <c r="E180" s="7"/>
-      <c r="F180" s="13"/>
+      <c r="F180" s="12"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
@@ -5875,13 +6045,13 @@
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
-      <c r="C181" s="44"/>
-      <c r="D181" s="44"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
       <c r="E181" s="9"/>
-      <c r="F181" s="45"/>
+      <c r="F181" s="23"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
@@ -5903,13 +6073,13 @@
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="42"/>
-      <c r="D182" s="30"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="18"/>
       <c r="E182" s="7"/>
-      <c r="F182" s="47"/>
+      <c r="F182" s="24"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
@@ -5931,13 +6101,13 @@
       <c r="Y182" s="7"/>
       <c r="Z182" s="7"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="10"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="30"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="18"/>
       <c r="E183" s="7"/>
-      <c r="F183" s="47"/>
+      <c r="F183" s="24"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
@@ -5959,13 +6129,13 @@
       <c r="Y183" s="7"/>
       <c r="Z183" s="7"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="30"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="18"/>
       <c r="E184" s="7"/>
-      <c r="F184" s="13"/>
+      <c r="F184" s="12"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
@@ -5987,13 +6157,13 @@
       <c r="Y184" s="7"/>
       <c r="Z184" s="7"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="30"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="18"/>
       <c r="E185" s="7"/>
-      <c r="F185" s="47"/>
+      <c r="F185" s="24"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
@@ -6015,13 +6185,13 @@
       <c r="Y185" s="7"/>
       <c r="Z185" s="7"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="30"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="47"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="24"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
@@ -6043,13 +6213,13 @@
       <c r="Y186" s="7"/>
       <c r="Z186" s="7"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="30"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="18"/>
       <c r="E187" s="7"/>
-      <c r="F187" s="47"/>
+      <c r="F187" s="24"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
@@ -6071,13 +6241,13 @@
       <c r="Y187" s="7"/>
       <c r="Z187" s="7"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="30"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="18"/>
       <c r="E188" s="7"/>
-      <c r="F188" s="13"/>
+      <c r="F188" s="12"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
@@ -6099,13 +6269,13 @@
       <c r="Y188" s="7"/>
       <c r="Z188" s="7"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="30"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="18"/>
       <c r="E189" s="7"/>
-      <c r="F189" s="13"/>
+      <c r="F189" s="12"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
@@ -6127,13 +6297,13 @@
       <c r="Y189" s="7"/>
       <c r="Z189" s="7"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="44"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
       <c r="E190" s="9"/>
-      <c r="F190" s="45"/>
+      <c r="F190" s="23"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
@@ -6155,13 +6325,13 @@
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
     </row>
-    <row r="191">
-      <c r="A191" s="5"/>
-      <c r="B191" s="67"/>
-      <c r="C191" s="68"/>
-      <c r="D191" s="44"/>
+    <row r="191" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="4"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="22"/>
       <c r="E191" s="7"/>
-      <c r="F191" s="69"/>
+      <c r="F191" s="34"/>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
@@ -6183,13 +6353,13 @@
       <c r="Y191" s="9"/>
       <c r="Z191" s="9"/>
     </row>
-    <row r="192">
-      <c r="A192" s="5"/>
-      <c r="B192" s="67"/>
-      <c r="C192" s="68"/>
-      <c r="D192" s="44"/>
+    <row r="192" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="4"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="22"/>
       <c r="E192" s="7"/>
-      <c r="F192" s="70"/>
+      <c r="F192" s="35"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
@@ -6211,13 +6381,13 @@
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
     </row>
-    <row r="193">
-      <c r="A193" s="5"/>
-      <c r="B193" s="67"/>
-      <c r="C193" s="68"/>
-      <c r="D193" s="44"/>
+    <row r="193" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="4"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="22"/>
       <c r="E193" s="7"/>
-      <c r="F193" s="69"/>
+      <c r="F193" s="34"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
@@ -6239,13 +6409,13 @@
       <c r="Y193" s="9"/>
       <c r="Z193" s="9"/>
     </row>
-    <row r="194">
-      <c r="A194" s="5"/>
-      <c r="B194" s="67"/>
-      <c r="C194" s="68"/>
-      <c r="D194" s="44"/>
+    <row r="194" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="4"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="33"/>
+      <c r="D194" s="22"/>
       <c r="E194" s="7"/>
-      <c r="F194" s="69"/>
+      <c r="F194" s="34"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
       <c r="I194" s="9"/>
@@ -6267,13 +6437,13 @@
       <c r="Y194" s="9"/>
       <c r="Z194" s="9"/>
     </row>
-    <row r="195">
-      <c r="A195" s="5"/>
-      <c r="B195" s="67"/>
-      <c r="C195" s="68"/>
-      <c r="D195" s="44"/>
-      <c r="E195" s="36"/>
-      <c r="F195" s="69"/>
+    <row r="195" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A195" s="4"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="33"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="34"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
@@ -6295,13 +6465,13 @@
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
     </row>
-    <row r="196">
-      <c r="A196" s="5"/>
-      <c r="B196" s="67"/>
-      <c r="C196" s="68"/>
-      <c r="D196" s="44"/>
+    <row r="196" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A196" s="4"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="22"/>
       <c r="E196" s="7"/>
-      <c r="F196" s="45"/>
+      <c r="F196" s="23"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
@@ -6323,13 +6493,13 @@
       <c r="Y196" s="9"/>
       <c r="Z196" s="9"/>
     </row>
-    <row r="197">
-      <c r="A197" s="71"/>
-      <c r="B197" s="72"/>
-      <c r="C197" s="73"/>
-      <c r="D197" s="74"/>
-      <c r="E197" s="43"/>
-      <c r="F197" s="69"/>
+    <row r="197" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="36"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="38"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="34"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
@@ -6351,13 +6521,13 @@
       <c r="Y197" s="9"/>
       <c r="Z197" s="9"/>
     </row>
-    <row r="198">
-      <c r="A198" s="71"/>
-      <c r="B198" s="75"/>
-      <c r="C198" s="73"/>
-      <c r="D198" s="44"/>
+    <row r="198" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="36"/>
+      <c r="B198" s="40"/>
+      <c r="C198" s="38"/>
+      <c r="D198" s="22"/>
       <c r="E198" s="7"/>
-      <c r="F198" s="69"/>
+      <c r="F198" s="34"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
@@ -6379,13 +6549,13 @@
       <c r="Y198" s="9"/>
       <c r="Z198" s="9"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
-      <c r="C199" s="44"/>
-      <c r="D199" s="44"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="45"/>
+      <c r="F199" s="23"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
@@ -6407,13 +6577,13 @@
       <c r="Y199" s="9"/>
       <c r="Z199" s="9"/>
     </row>
-    <row r="200">
-      <c r="A200" s="71"/>
-      <c r="B200" s="71"/>
-      <c r="C200" s="73"/>
-      <c r="D200" s="44"/>
+    <row r="200" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="36"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="38"/>
+      <c r="D200" s="22"/>
       <c r="E200" s="7"/>
-      <c r="F200" s="69"/>
+      <c r="F200" s="34"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
@@ -6435,13 +6605,13 @@
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
     </row>
-    <row r="201">
-      <c r="A201" s="71"/>
-      <c r="B201" s="71"/>
-      <c r="C201" s="73"/>
-      <c r="D201" s="44"/>
+    <row r="201" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="36"/>
+      <c r="B201" s="36"/>
+      <c r="C201" s="38"/>
+      <c r="D201" s="22"/>
       <c r="E201" s="7"/>
-      <c r="F201" s="69"/>
+      <c r="F201" s="34"/>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
@@ -6463,13 +6633,13 @@
       <c r="Y201" s="9"/>
       <c r="Z201" s="9"/>
     </row>
-    <row r="202">
-      <c r="A202" s="71"/>
-      <c r="B202" s="71"/>
-      <c r="C202" s="73"/>
-      <c r="D202" s="44"/>
+    <row r="202" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="36"/>
+      <c r="B202" s="36"/>
+      <c r="C202" s="38"/>
+      <c r="D202" s="22"/>
       <c r="E202" s="7"/>
-      <c r="F202" s="70"/>
+      <c r="F202" s="35"/>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
@@ -6491,13 +6661,13 @@
       <c r="Y202" s="9"/>
       <c r="Z202" s="9"/>
     </row>
-    <row r="203">
-      <c r="A203" s="71"/>
-      <c r="B203" s="71"/>
-      <c r="C203" s="73"/>
-      <c r="D203" s="44"/>
+    <row r="203" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A203" s="36"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="38"/>
+      <c r="D203" s="22"/>
       <c r="E203" s="7"/>
-      <c r="F203" s="69"/>
+      <c r="F203" s="34"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
@@ -6519,13 +6689,13 @@
       <c r="Y203" s="9"/>
       <c r="Z203" s="9"/>
     </row>
-    <row r="204">
-      <c r="A204" s="71"/>
-      <c r="B204" s="71"/>
-      <c r="C204" s="73"/>
-      <c r="D204" s="44"/>
-      <c r="E204" s="36"/>
-      <c r="F204" s="69"/>
+    <row r="204" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A204" s="36"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="38"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="34"/>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
@@ -6547,13 +6717,13 @@
       <c r="Y204" s="9"/>
       <c r="Z204" s="9"/>
     </row>
-    <row r="205">
-      <c r="A205" s="71"/>
-      <c r="B205" s="71"/>
-      <c r="C205" s="73"/>
-      <c r="D205" s="44"/>
+    <row r="205" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A205" s="36"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="38"/>
+      <c r="D205" s="22"/>
       <c r="E205" s="7"/>
-      <c r="F205" s="69"/>
+      <c r="F205" s="34"/>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
       <c r="I205" s="9"/>
@@ -6575,13 +6745,13 @@
       <c r="Y205" s="9"/>
       <c r="Z205" s="9"/>
     </row>
-    <row r="206">
-      <c r="A206" s="71"/>
-      <c r="B206" s="71"/>
-      <c r="C206" s="73"/>
-      <c r="D206" s="74"/>
+    <row r="206" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A206" s="36"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="38"/>
+      <c r="D206" s="39"/>
       <c r="E206" s="7"/>
-      <c r="F206" s="69"/>
+      <c r="F206" s="34"/>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
       <c r="I206" s="9"/>
@@ -6603,13 +6773,13 @@
       <c r="Y206" s="9"/>
       <c r="Z206" s="9"/>
     </row>
-    <row r="207">
-      <c r="A207" s="76"/>
-      <c r="B207" s="76"/>
-      <c r="C207" s="42"/>
-      <c r="D207" s="44"/>
+    <row r="207" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="41"/>
+      <c r="B207" s="41"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="22"/>
       <c r="E207" s="7"/>
-      <c r="F207" s="69"/>
+      <c r="F207" s="34"/>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
       <c r="I207" s="9"/>
@@ -6631,13 +6801,13 @@
       <c r="Y207" s="9"/>
       <c r="Z207" s="9"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
-      <c r="C208" s="44"/>
-      <c r="D208" s="44"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
       <c r="E208" s="9"/>
-      <c r="F208" s="45"/>
+      <c r="F208" s="23"/>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
       <c r="I208" s="9"/>
@@ -6659,13 +6829,13 @@
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
     </row>
-    <row r="209">
-      <c r="A209" s="5"/>
-      <c r="B209" s="67"/>
-      <c r="C209" s="68"/>
-      <c r="D209" s="44"/>
+    <row r="209" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A209" s="4"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="33"/>
+      <c r="D209" s="22"/>
       <c r="E209" s="7"/>
-      <c r="F209" s="69"/>
+      <c r="F209" s="34"/>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
       <c r="I209" s="9"/>
@@ -6687,13 +6857,13 @@
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
     </row>
-    <row r="210">
-      <c r="A210" s="71"/>
-      <c r="B210" s="75"/>
-      <c r="C210" s="73"/>
-      <c r="D210" s="44"/>
+    <row r="210" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A210" s="36"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="38"/>
+      <c r="D210" s="22"/>
       <c r="E210" s="7"/>
-      <c r="F210" s="69"/>
+      <c r="F210" s="34"/>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
       <c r="I210" s="9"/>
@@ -6715,13 +6885,13 @@
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
     </row>
-    <row r="211">
-      <c r="A211" s="71"/>
-      <c r="B211" s="75"/>
-      <c r="C211" s="73"/>
-      <c r="D211" s="44"/>
+    <row r="211" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="36"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="38"/>
+      <c r="D211" s="22"/>
       <c r="E211" s="7"/>
-      <c r="F211" s="69"/>
+      <c r="F211" s="34"/>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
       <c r="I211" s="9"/>
@@ -6743,13 +6913,13 @@
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
     </row>
-    <row r="212">
-      <c r="A212" s="71"/>
-      <c r="B212" s="75"/>
-      <c r="C212" s="73"/>
-      <c r="D212" s="44"/>
+    <row r="212" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="36"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="38"/>
+      <c r="D212" s="22"/>
       <c r="E212" s="7"/>
-      <c r="F212" s="69"/>
+      <c r="F212" s="34"/>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
       <c r="I212" s="9"/>
@@ -6771,13 +6941,13 @@
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
     </row>
-    <row r="213">
-      <c r="A213" s="71"/>
-      <c r="B213" s="75"/>
-      <c r="C213" s="73"/>
-      <c r="D213" s="44"/>
-      <c r="E213" s="36"/>
-      <c r="F213" s="69"/>
+    <row r="213" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A213" s="36"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="38"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="34"/>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
       <c r="I213" s="9"/>
@@ -6799,13 +6969,13 @@
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
     </row>
-    <row r="214">
-      <c r="A214" s="71"/>
-      <c r="B214" s="75"/>
-      <c r="C214" s="73"/>
-      <c r="D214" s="44"/>
+    <row r="214" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A214" s="36"/>
+      <c r="B214" s="40"/>
+      <c r="C214" s="38"/>
+      <c r="D214" s="22"/>
       <c r="E214" s="7"/>
-      <c r="F214" s="69"/>
+      <c r="F214" s="34"/>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
       <c r="I214" s="9"/>
@@ -6827,13 +6997,13 @@
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
     </row>
-    <row r="215">
-      <c r="A215" s="71"/>
-      <c r="B215" s="75"/>
-      <c r="C215" s="73"/>
-      <c r="D215" s="44"/>
+    <row r="215" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A215" s="36"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="38"/>
+      <c r="D215" s="22"/>
       <c r="E215" s="7"/>
-      <c r="F215" s="69"/>
+      <c r="F215" s="34"/>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
       <c r="I215" s="9"/>
@@ -6855,13 +7025,13 @@
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
     </row>
-    <row r="216">
-      <c r="A216" s="71"/>
-      <c r="B216" s="75"/>
-      <c r="C216" s="73"/>
-      <c r="D216" s="44"/>
+    <row r="216" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A216" s="36"/>
+      <c r="B216" s="40"/>
+      <c r="C216" s="38"/>
+      <c r="D216" s="22"/>
       <c r="E216" s="7"/>
-      <c r="F216" s="69"/>
+      <c r="F216" s="34"/>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
       <c r="I216" s="9"/>
@@ -6883,13 +7053,13 @@
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
-      <c r="C217" s="44"/>
-      <c r="D217" s="44"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
       <c r="E217" s="9"/>
-      <c r="F217" s="45"/>
+      <c r="F217" s="23"/>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
       <c r="I217" s="9"/>
@@ -6911,13 +7081,13 @@
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
     </row>
-    <row r="218">
-      <c r="A218" s="5"/>
-      <c r="B218" s="67"/>
-      <c r="C218" s="68"/>
-      <c r="D218" s="68"/>
+    <row r="218" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A218" s="4"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
       <c r="E218" s="7"/>
-      <c r="F218" s="69"/>
+      <c r="F218" s="34"/>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
       <c r="I218" s="9"/>
@@ -6939,13 +7109,13 @@
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
     </row>
-    <row r="219">
-      <c r="A219" s="71"/>
-      <c r="B219" s="75"/>
-      <c r="C219" s="73"/>
-      <c r="D219" s="73"/>
+    <row r="219" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="36"/>
+      <c r="B219" s="40"/>
+      <c r="C219" s="38"/>
+      <c r="D219" s="38"/>
       <c r="E219" s="7"/>
-      <c r="F219" s="69"/>
+      <c r="F219" s="34"/>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
       <c r="I219" s="9"/>
@@ -6967,13 +7137,13 @@
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
     </row>
-    <row r="220">
-      <c r="A220" s="71"/>
-      <c r="B220" s="75"/>
-      <c r="C220" s="73"/>
-      <c r="D220" s="73"/>
+    <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A220" s="36"/>
+      <c r="B220" s="40"/>
+      <c r="C220" s="38"/>
+      <c r="D220" s="38"/>
       <c r="E220" s="7"/>
-      <c r="F220" s="45"/>
+      <c r="F220" s="23"/>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
@@ -6995,13 +7165,13 @@
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
     </row>
-    <row r="221">
-      <c r="A221" s="71"/>
-      <c r="B221" s="75"/>
-      <c r="C221" s="73"/>
-      <c r="D221" s="73"/>
+    <row r="221" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A221" s="36"/>
+      <c r="B221" s="40"/>
+      <c r="C221" s="38"/>
+      <c r="D221" s="38"/>
       <c r="E221" s="7"/>
-      <c r="F221" s="69"/>
+      <c r="F221" s="34"/>
       <c r="G221" s="9"/>
       <c r="H221" s="9"/>
       <c r="I221" s="9"/>
@@ -7023,13 +7193,13 @@
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
     </row>
-    <row r="222">
-      <c r="A222" s="71"/>
-      <c r="B222" s="75"/>
-      <c r="C222" s="73"/>
-      <c r="D222" s="73"/>
-      <c r="E222" s="36"/>
-      <c r="F222" s="69"/>
+    <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A222" s="36"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="38"/>
+      <c r="D222" s="38"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="34"/>
       <c r="G222" s="9"/>
       <c r="H222" s="9"/>
       <c r="I222" s="9"/>
@@ -7051,13 +7221,13 @@
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
     </row>
-    <row r="223">
-      <c r="A223" s="71"/>
-      <c r="B223" s="75"/>
-      <c r="C223" s="73"/>
-      <c r="D223" s="73"/>
+    <row r="223" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A223" s="36"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="38"/>
+      <c r="D223" s="38"/>
       <c r="E223" s="7"/>
-      <c r="F223" s="69"/>
+      <c r="F223" s="34"/>
       <c r="G223" s="9"/>
       <c r="H223" s="9"/>
       <c r="I223" s="9"/>
@@ -7079,13 +7249,13 @@
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
     </row>
-    <row r="224">
-      <c r="A224" s="71"/>
-      <c r="B224" s="75"/>
-      <c r="C224" s="73"/>
-      <c r="D224" s="73"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="69"/>
+    <row r="224" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A224" s="36"/>
+      <c r="B224" s="40"/>
+      <c r="C224" s="38"/>
+      <c r="D224" s="38"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="34"/>
       <c r="G224" s="9"/>
       <c r="H224" s="9"/>
       <c r="I224" s="9"/>
@@ -7107,13 +7277,13 @@
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
     </row>
-    <row r="225">
-      <c r="A225" s="71"/>
-      <c r="B225" s="75"/>
-      <c r="C225" s="73"/>
-      <c r="D225" s="73"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="69"/>
+    <row r="225" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A225" s="36"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="38"/>
+      <c r="D225" s="38"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="34"/>
       <c r="G225" s="9"/>
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
@@ -7135,13 +7305,13 @@
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
-      <c r="C226" s="44"/>
-      <c r="D226" s="44"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
       <c r="E226" s="9"/>
-      <c r="F226" s="45"/>
+      <c r="F226" s="23"/>
       <c r="G226" s="9"/>
       <c r="H226" s="9"/>
       <c r="I226" s="9"/>
@@ -7163,13 +7333,13 @@
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
     </row>
-    <row r="227">
-      <c r="A227" s="71"/>
-      <c r="B227" s="75"/>
-      <c r="C227" s="73"/>
-      <c r="D227" s="73"/>
-      <c r="E227" s="43"/>
-      <c r="F227" s="69"/>
+    <row r="227" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A227" s="36"/>
+      <c r="B227" s="40"/>
+      <c r="C227" s="38"/>
+      <c r="D227" s="38"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="34"/>
       <c r="G227" s="9"/>
       <c r="H227" s="9"/>
       <c r="I227" s="9"/>
@@ -7191,13 +7361,13 @@
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
     </row>
-    <row r="228">
-      <c r="A228" s="71"/>
-      <c r="B228" s="75"/>
-      <c r="C228" s="73"/>
-      <c r="D228" s="73"/>
-      <c r="E228" s="43"/>
-      <c r="F228" s="69"/>
+    <row r="228" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A228" s="36"/>
+      <c r="B228" s="40"/>
+      <c r="C228" s="38"/>
+      <c r="D228" s="38"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="34"/>
       <c r="G228" s="9"/>
       <c r="H228" s="9"/>
       <c r="I228" s="9"/>
@@ -7219,13 +7389,13 @@
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
     </row>
-    <row r="229">
-      <c r="A229" s="71"/>
-      <c r="B229" s="75"/>
-      <c r="C229" s="73"/>
-      <c r="D229" s="73"/>
-      <c r="E229" s="43"/>
-      <c r="F229" s="45"/>
+    <row r="229" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="36"/>
+      <c r="B229" s="40"/>
+      <c r="C229" s="38"/>
+      <c r="D229" s="38"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="23"/>
       <c r="G229" s="9"/>
       <c r="H229" s="9"/>
       <c r="I229" s="9"/>
@@ -7247,13 +7417,13 @@
       <c r="Y229" s="9"/>
       <c r="Z229" s="9"/>
     </row>
-    <row r="230">
-      <c r="A230" s="71"/>
-      <c r="B230" s="75"/>
-      <c r="C230" s="73"/>
-      <c r="D230" s="73"/>
-      <c r="E230" s="43"/>
-      <c r="F230" s="69"/>
+    <row r="230" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A230" s="36"/>
+      <c r="B230" s="40"/>
+      <c r="C230" s="38"/>
+      <c r="D230" s="38"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="34"/>
       <c r="G230" s="9"/>
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
@@ -7275,13 +7445,13 @@
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
     </row>
-    <row r="231">
-      <c r="A231" s="71"/>
-      <c r="B231" s="75"/>
-      <c r="C231" s="73"/>
-      <c r="D231" s="73"/>
-      <c r="E231" s="76"/>
-      <c r="F231" s="69"/>
+    <row r="231" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A231" s="36"/>
+      <c r="B231" s="40"/>
+      <c r="C231" s="38"/>
+      <c r="D231" s="38"/>
+      <c r="E231" s="41"/>
+      <c r="F231" s="34"/>
       <c r="G231" s="9"/>
       <c r="H231" s="9"/>
       <c r="I231" s="9"/>
@@ -7303,13 +7473,13 @@
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
     </row>
-    <row r="232">
-      <c r="A232" s="71"/>
-      <c r="B232" s="75"/>
-      <c r="C232" s="73"/>
-      <c r="D232" s="73"/>
-      <c r="E232" s="43"/>
-      <c r="F232" s="69"/>
+    <row r="232" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A232" s="36"/>
+      <c r="B232" s="40"/>
+      <c r="C232" s="38"/>
+      <c r="D232" s="38"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="34"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
@@ -7331,13 +7501,13 @@
       <c r="Y232" s="9"/>
       <c r="Z232" s="9"/>
     </row>
-    <row r="233">
-      <c r="A233" s="71"/>
-      <c r="B233" s="75"/>
-      <c r="C233" s="73"/>
-      <c r="D233" s="73"/>
-      <c r="E233" s="43"/>
-      <c r="F233" s="69"/>
+    <row r="233" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A233" s="36"/>
+      <c r="B233" s="40"/>
+      <c r="C233" s="38"/>
+      <c r="D233" s="38"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="34"/>
       <c r="G233" s="9"/>
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
@@ -7359,13 +7529,13 @@
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
     </row>
-    <row r="234">
-      <c r="A234" s="71"/>
-      <c r="B234" s="75"/>
-      <c r="C234" s="73"/>
-      <c r="D234" s="73"/>
-      <c r="E234" s="43"/>
-      <c r="F234" s="69"/>
+    <row r="234" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A234" s="36"/>
+      <c r="B234" s="40"/>
+      <c r="C234" s="38"/>
+      <c r="D234" s="38"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="34"/>
       <c r="G234" s="9"/>
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
@@ -7387,13 +7557,13 @@
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
-      <c r="C235" s="44"/>
-      <c r="D235" s="44"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
       <c r="E235" s="9"/>
-      <c r="F235" s="45"/>
+      <c r="F235" s="23"/>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
       <c r="I235" s="9"/>
@@ -7415,13 +7585,13 @@
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="10"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="42"/>
-      <c r="D236" s="30"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="18"/>
       <c r="E236" s="7"/>
-      <c r="F236" s="13"/>
+      <c r="F236" s="12"/>
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
@@ -7443,13 +7613,13 @@
       <c r="Y236" s="7"/>
       <c r="Z236" s="7"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="10"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="42"/>
-      <c r="D237" s="30"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="18"/>
       <c r="E237" s="7"/>
-      <c r="F237" s="13"/>
+      <c r="F237" s="12"/>
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
@@ -7471,13 +7641,13 @@
       <c r="Y237" s="7"/>
       <c r="Z237" s="7"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="42"/>
-      <c r="D238" s="30"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="18"/>
       <c r="E238" s="7"/>
-      <c r="F238" s="13"/>
+      <c r="F238" s="12"/>
       <c r="G238" s="7"/>
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
@@ -7499,11 +7669,11 @@
       <c r="Y238" s="7"/>
       <c r="Z238" s="7"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
-      <c r="C239" s="44"/>
-      <c r="D239" s="44"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
@@ -7527,13 +7697,13 @@
       <c r="Y239" s="9"/>
       <c r="Z239" s="9"/>
     </row>
-    <row r="240">
-      <c r="A240" s="5"/>
+    <row r="240" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A240" s="4"/>
       <c r="B240" s="10"/>
-      <c r="C240" s="77"/>
-      <c r="D240" s="30"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="18"/>
       <c r="E240" s="7"/>
-      <c r="F240" s="38"/>
+      <c r="F240" s="19"/>
       <c r="G240" s="7"/>
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
@@ -7555,13 +7725,13 @@
       <c r="Y240" s="7"/>
       <c r="Z240" s="7"/>
     </row>
-    <row r="241">
-      <c r="A241" s="5"/>
+    <row r="241" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A241" s="4"/>
       <c r="B241" s="10"/>
-      <c r="C241" s="77"/>
-      <c r="D241" s="44"/>
+      <c r="C241" s="42"/>
+      <c r="D241" s="22"/>
       <c r="E241" s="7"/>
-      <c r="F241" s="67"/>
+      <c r="F241" s="32"/>
       <c r="G241" s="9"/>
       <c r="H241" s="9"/>
       <c r="I241" s="9"/>
@@ -7583,13 +7753,13 @@
       <c r="Y241" s="9"/>
       <c r="Z241" s="9"/>
     </row>
-    <row r="242">
-      <c r="A242" s="5"/>
+    <row r="242" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A242" s="4"/>
       <c r="B242" s="10"/>
-      <c r="C242" s="77"/>
-      <c r="D242" s="44"/>
+      <c r="C242" s="42"/>
+      <c r="D242" s="22"/>
       <c r="E242" s="7"/>
-      <c r="F242" s="67"/>
+      <c r="F242" s="32"/>
       <c r="G242" s="9"/>
       <c r="H242" s="9"/>
       <c r="I242" s="9"/>
@@ -7611,11 +7781,11 @@
       <c r="Y242" s="9"/>
       <c r="Z242" s="9"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
-      <c r="C243" s="44"/>
-      <c r="D243" s="44"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
@@ -7639,13 +7809,13 @@
       <c r="Y243" s="9"/>
       <c r="Z243" s="9"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
-      <c r="B244" s="19"/>
+      <c r="B244" s="3"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
       <c r="E244" s="7"/>
-      <c r="F244" s="13"/>
+      <c r="F244" s="12"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
@@ -7667,13 +7837,13 @@
       <c r="Y244" s="9"/>
       <c r="Z244" s="9"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
-      <c r="B245" s="19"/>
+      <c r="B245" s="3"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="7"/>
-      <c r="F245" s="13"/>
+      <c r="F245" s="12"/>
       <c r="G245" s="9"/>
       <c r="H245" s="9"/>
       <c r="I245" s="9"/>
@@ -7695,13 +7865,13 @@
       <c r="Y245" s="9"/>
       <c r="Z245" s="9"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
-      <c r="B246" s="19"/>
+      <c r="B246" s="3"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="7"/>
-      <c r="F246" s="13"/>
+      <c r="F246" s="12"/>
       <c r="G246" s="9"/>
       <c r="H246" s="9"/>
       <c r="I246" s="9"/>
@@ -7723,13 +7893,13 @@
       <c r="Y246" s="9"/>
       <c r="Z246" s="9"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
-      <c r="B247" s="19"/>
+      <c r="B247" s="3"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="7"/>
-      <c r="F247" s="62"/>
+      <c r="F247" s="27"/>
       <c r="G247" s="9"/>
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
@@ -7751,13 +7921,13 @@
       <c r="Y247" s="9"/>
       <c r="Z247" s="9"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
-      <c r="B248" s="19"/>
+      <c r="B248" s="3"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="7"/>
-      <c r="F248" s="62"/>
+      <c r="F248" s="27"/>
       <c r="G248" s="9"/>
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
@@ -7779,13 +7949,13 @@
       <c r="Y248" s="9"/>
       <c r="Z248" s="9"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
-      <c r="B249" s="19"/>
+      <c r="B249" s="3"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="7"/>
-      <c r="F249" s="62"/>
+      <c r="F249" s="27"/>
       <c r="G249" s="9"/>
       <c r="H249" s="9"/>
       <c r="I249" s="9"/>
@@ -7807,13 +7977,13 @@
       <c r="Y249" s="9"/>
       <c r="Z249" s="9"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
-      <c r="C250" s="30"/>
-      <c r="D250" s="30"/>
-      <c r="E250" s="63"/>
-      <c r="F250" s="13"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="12"/>
       <c r="G250" s="9"/>
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
@@ -7835,13 +8005,13 @@
       <c r="Y250" s="9"/>
       <c r="Z250" s="9"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
-      <c r="B251" s="5"/>
+      <c r="B251" s="4"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="7"/>
-      <c r="F251" s="78"/>
+      <c r="F251" s="43"/>
       <c r="G251" s="9"/>
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
@@ -7863,13 +8033,13 @@
       <c r="Y251" s="9"/>
       <c r="Z251" s="9"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
-      <c r="B252" s="5"/>
+      <c r="B252" s="4"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="7"/>
-      <c r="F252" s="78"/>
+      <c r="F252" s="43"/>
       <c r="G252" s="9"/>
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
@@ -7891,13 +8061,13 @@
       <c r="Y252" s="9"/>
       <c r="Z252" s="9"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
-      <c r="B253" s="5"/>
+      <c r="B253" s="4"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="7"/>
-      <c r="F253" s="13"/>
+      <c r="F253" s="12"/>
       <c r="G253" s="9"/>
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
@@ -7919,13 +8089,13 @@
       <c r="Y253" s="9"/>
       <c r="Z253" s="9"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
-      <c r="B254" s="5"/>
+      <c r="B254" s="4"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="7"/>
-      <c r="F254" s="13"/>
+      <c r="F254" s="12"/>
       <c r="G254" s="9"/>
       <c r="H254" s="9"/>
       <c r="I254" s="9"/>
@@ -7947,13 +8117,13 @@
       <c r="Y254" s="9"/>
       <c r="Z254" s="9"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
-      <c r="B255" s="5"/>
+      <c r="B255" s="4"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
       <c r="E255" s="7"/>
-      <c r="F255" s="13"/>
+      <c r="F255" s="12"/>
       <c r="G255" s="9"/>
       <c r="H255" s="9"/>
       <c r="I255" s="9"/>
@@ -7975,13 +8145,13 @@
       <c r="Y255" s="9"/>
       <c r="Z255" s="9"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
-      <c r="B256" s="5"/>
+      <c r="B256" s="4"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
       <c r="E256" s="7"/>
-      <c r="F256" s="13"/>
+      <c r="F256" s="12"/>
       <c r="G256" s="9"/>
       <c r="H256" s="9"/>
       <c r="I256" s="9"/>
@@ -8003,13 +8173,13 @@
       <c r="Y256" s="9"/>
       <c r="Z256" s="9"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
-      <c r="C257" s="30"/>
-      <c r="D257" s="30"/>
+      <c r="C257" s="18"/>
+      <c r="D257" s="18"/>
       <c r="E257" s="7"/>
-      <c r="F257" s="13"/>
+      <c r="F257" s="12"/>
       <c r="G257" s="9"/>
       <c r="H257" s="9"/>
       <c r="I257" s="9"/>
@@ -8031,13 +8201,13 @@
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
     </row>
-    <row r="258">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
+    <row r="258" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="7"/>
-      <c r="F258" s="13"/>
+      <c r="F258" s="12"/>
       <c r="G258" s="9"/>
       <c r="H258" s="9"/>
       <c r="I258" s="9"/>
@@ -8059,13 +8229,13 @@
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
     </row>
-    <row r="259">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5"/>
+    <row r="259" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
       <c r="E259" s="7"/>
-      <c r="F259" s="13"/>
+      <c r="F259" s="12"/>
       <c r="G259" s="9"/>
       <c r="H259" s="9"/>
       <c r="I259" s="9"/>
@@ -8087,13 +8257,13 @@
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
-      <c r="B260" s="5"/>
+      <c r="B260" s="4"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
       <c r="E260" s="7"/>
-      <c r="F260" s="13"/>
+      <c r="F260" s="12"/>
       <c r="G260" s="9"/>
       <c r="H260" s="9"/>
       <c r="I260" s="9"/>
@@ -8115,13 +8285,13 @@
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
     </row>
-    <row r="261">
-      <c r="A261" s="5"/>
-      <c r="B261" s="5"/>
+    <row r="261" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="7"/>
-      <c r="F261" s="13"/>
+      <c r="F261" s="12"/>
       <c r="G261" s="9"/>
       <c r="H261" s="9"/>
       <c r="I261" s="9"/>
@@ -8143,13 +8313,13 @@
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
-      <c r="B262" s="5"/>
+      <c r="B262" s="4"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="7"/>
-      <c r="F262" s="13"/>
+      <c r="F262" s="12"/>
       <c r="G262" s="9"/>
       <c r="H262" s="9"/>
       <c r="I262" s="9"/>
@@ -8171,13 +8341,13 @@
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
-      <c r="B263" s="5"/>
+      <c r="B263" s="4"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="7"/>
-      <c r="F263" s="13"/>
+      <c r="F263" s="12"/>
       <c r="G263" s="9"/>
       <c r="H263" s="9"/>
       <c r="I263" s="9"/>
@@ -8199,13 +8369,13 @@
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
-      <c r="B264" s="5"/>
+      <c r="B264" s="4"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
       <c r="E264" s="7"/>
-      <c r="F264" s="13"/>
+      <c r="F264" s="12"/>
       <c r="G264" s="9"/>
       <c r="H264" s="9"/>
       <c r="I264" s="9"/>
@@ -8227,13 +8397,13 @@
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
     </row>
-    <row r="265">
-      <c r="A265" s="5"/>
-      <c r="B265" s="5"/>
+    <row r="265" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
       <c r="E265" s="7"/>
-      <c r="F265" s="13"/>
+      <c r="F265" s="12"/>
       <c r="G265" s="9"/>
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
@@ -8255,13 +8425,13 @@
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
-      <c r="B266" s="5"/>
+      <c r="B266" s="4"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
       <c r="E266" s="7"/>
-      <c r="F266" s="13"/>
+      <c r="F266" s="12"/>
       <c r="G266" s="9"/>
       <c r="H266" s="9"/>
       <c r="I266" s="9"/>
@@ -8283,13 +8453,13 @@
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="10"/>
-      <c r="B267" s="5"/>
+      <c r="B267" s="4"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="7"/>
-      <c r="F267" s="13"/>
+      <c r="F267" s="12"/>
       <c r="G267" s="9"/>
       <c r="H267" s="9"/>
       <c r="I267" s="9"/>
@@ -8311,13 +8481,13 @@
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
-      <c r="B268" s="5"/>
+      <c r="B268" s="4"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
       <c r="E268" s="7"/>
-      <c r="F268" s="13"/>
+      <c r="F268" s="12"/>
       <c r="G268" s="9"/>
       <c r="H268" s="9"/>
       <c r="I268" s="9"/>
@@ -8339,13 +8509,13 @@
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
-      <c r="B269" s="5"/>
+      <c r="B269" s="4"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
       <c r="E269" s="7"/>
-      <c r="F269" s="13"/>
+      <c r="F269" s="12"/>
       <c r="G269" s="9"/>
       <c r="H269" s="9"/>
       <c r="I269" s="9"/>
@@ -8367,13 +8537,13 @@
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
-      <c r="B270" s="5"/>
+      <c r="B270" s="4"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
       <c r="E270" s="7"/>
-      <c r="F270" s="13"/>
+      <c r="F270" s="12"/>
       <c r="G270" s="9"/>
       <c r="H270" s="9"/>
       <c r="I270" s="9"/>
@@ -8395,13 +8565,13 @@
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
-      <c r="B271" s="5"/>
+      <c r="B271" s="4"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
       <c r="E271" s="7"/>
-      <c r="F271" s="13"/>
+      <c r="F271" s="12"/>
       <c r="G271" s="9"/>
       <c r="H271" s="9"/>
       <c r="I271" s="9"/>
@@ -8423,13 +8593,13 @@
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
-      <c r="B272" s="5"/>
+      <c r="B272" s="4"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
       <c r="E272" s="7"/>
-      <c r="F272" s="13"/>
+      <c r="F272" s="12"/>
       <c r="G272" s="9"/>
       <c r="H272" s="9"/>
       <c r="I272" s="9"/>
@@ -8451,13 +8621,13 @@
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
-      <c r="B273" s="5"/>
+      <c r="B273" s="4"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
       <c r="E273" s="7"/>
-      <c r="F273" s="13"/>
+      <c r="F273" s="12"/>
       <c r="G273" s="9"/>
       <c r="H273" s="9"/>
       <c r="I273" s="9"/>
@@ -8479,13 +8649,13 @@
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="10"/>
-      <c r="B274" s="5"/>
+      <c r="B274" s="4"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
       <c r="E274" s="7"/>
-      <c r="F274" s="13"/>
+      <c r="F274" s="12"/>
       <c r="G274" s="9"/>
       <c r="H274" s="9"/>
       <c r="I274" s="9"/>
@@ -8507,13 +8677,13 @@
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="10"/>
-      <c r="B275" s="5"/>
+      <c r="B275" s="4"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="7"/>
-      <c r="F275" s="13"/>
+      <c r="F275" s="12"/>
       <c r="G275" s="9"/>
       <c r="H275" s="9"/>
       <c r="I275" s="9"/>
@@ -8535,13 +8705,13 @@
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="10"/>
-      <c r="B276" s="5"/>
+      <c r="B276" s="4"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
       <c r="E276" s="7"/>
-      <c r="F276" s="13"/>
+      <c r="F276" s="12"/>
       <c r="G276" s="9"/>
       <c r="H276" s="9"/>
       <c r="I276" s="9"/>
@@ -8563,13 +8733,13 @@
       <c r="Y276" s="9"/>
       <c r="Z276" s="9"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="10"/>
-      <c r="B277" s="5"/>
+      <c r="B277" s="4"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="7"/>
-      <c r="F277" s="13"/>
+      <c r="F277" s="12"/>
       <c r="G277" s="9"/>
       <c r="H277" s="9"/>
       <c r="I277" s="9"/>
@@ -8591,13 +8761,13 @@
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="10"/>
-      <c r="B278" s="5"/>
+      <c r="B278" s="4"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
       <c r="E278" s="7"/>
-      <c r="F278" s="13"/>
+      <c r="F278" s="12"/>
       <c r="G278" s="9"/>
       <c r="H278" s="9"/>
       <c r="I278" s="9"/>
@@ -8619,13 +8789,13 @@
       <c r="Y278" s="9"/>
       <c r="Z278" s="9"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="7"/>
-      <c r="B279" s="63"/>
-      <c r="C279" s="64"/>
-      <c r="D279" s="64"/>
-      <c r="E279" s="63"/>
-      <c r="F279" s="65"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="29"/>
+      <c r="D279" s="29"/>
+      <c r="E279" s="28"/>
+      <c r="F279" s="30"/>
       <c r="G279" s="9"/>
       <c r="H279" s="9"/>
       <c r="I279" s="9"/>
@@ -8647,13 +8817,13 @@
       <c r="Y279" s="9"/>
       <c r="Z279" s="9"/>
     </row>
-    <row r="280">
-      <c r="A280" s="5"/>
-      <c r="B280" s="63"/>
-      <c r="C280" s="64"/>
-      <c r="D280" s="64"/>
+    <row r="280" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A280" s="4"/>
+      <c r="B280" s="28"/>
+      <c r="C280" s="29"/>
+      <c r="D280" s="29"/>
       <c r="E280" s="7"/>
-      <c r="F280" s="79"/>
+      <c r="F280" s="44"/>
       <c r="G280" s="9"/>
       <c r="H280" s="9"/>
       <c r="I280" s="9"/>
@@ -8675,13 +8845,13 @@
       <c r="Y280" s="9"/>
       <c r="Z280" s="9"/>
     </row>
-    <row r="281">
-      <c r="A281" s="5"/>
+    <row r="281" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A281" s="4"/>
       <c r="B281" s="9"/>
-      <c r="C281" s="44"/>
-      <c r="D281" s="44"/>
+      <c r="C281" s="22"/>
+      <c r="D281" s="22"/>
       <c r="E281" s="7"/>
-      <c r="F281" s="67"/>
+      <c r="F281" s="32"/>
       <c r="G281" s="9"/>
       <c r="H281" s="9"/>
       <c r="I281" s="9"/>
@@ -8703,13 +8873,13 @@
       <c r="Y281" s="9"/>
       <c r="Z281" s="9"/>
     </row>
-    <row r="282">
-      <c r="A282" s="5"/>
+    <row r="282" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A282" s="4"/>
       <c r="B282" s="9"/>
-      <c r="C282" s="44"/>
-      <c r="D282" s="44"/>
+      <c r="C282" s="22"/>
+      <c r="D282" s="22"/>
       <c r="E282" s="7"/>
-      <c r="F282" s="67"/>
+      <c r="F282" s="32"/>
       <c r="G282" s="9"/>
       <c r="H282" s="9"/>
       <c r="I282" s="9"/>
@@ -8731,13 +8901,13 @@
       <c r="Y282" s="9"/>
       <c r="Z282" s="9"/>
     </row>
-    <row r="283">
-      <c r="A283" s="5"/>
+    <row r="283" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A283" s="4"/>
       <c r="B283" s="9"/>
-      <c r="C283" s="44"/>
-      <c r="D283" s="44"/>
+      <c r="C283" s="22"/>
+      <c r="D283" s="22"/>
       <c r="E283" s="7"/>
-      <c r="F283" s="67"/>
+      <c r="F283" s="32"/>
       <c r="G283" s="9"/>
       <c r="H283" s="9"/>
       <c r="I283" s="9"/>
@@ -8759,11 +8929,11 @@
       <c r="Y283" s="9"/>
       <c r="Z283" s="9"/>
     </row>
-    <row r="284">
-      <c r="A284" s="5"/>
+    <row r="284" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A284" s="4"/>
       <c r="B284" s="9"/>
-      <c r="C284" s="44"/>
-      <c r="D284" s="44"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
       <c r="E284" s="7"/>
       <c r="F284" s="9"/>
       <c r="G284" s="9"/>
@@ -8787,11 +8957,11 @@
       <c r="Y284" s="9"/>
       <c r="Z284" s="9"/>
     </row>
-    <row r="285">
-      <c r="A285" s="5"/>
+    <row r="285" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A285" s="4"/>
       <c r="B285" s="9"/>
-      <c r="C285" s="44"/>
-      <c r="D285" s="44"/>
+      <c r="C285" s="22"/>
+      <c r="D285" s="22"/>
       <c r="E285" s="7"/>
       <c r="F285" s="9"/>
       <c r="G285" s="9"/>
@@ -8815,11 +8985,11 @@
       <c r="Y285" s="9"/>
       <c r="Z285" s="9"/>
     </row>
-    <row r="286">
-      <c r="A286" s="5"/>
+    <row r="286" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A286" s="4"/>
       <c r="B286" s="9"/>
-      <c r="C286" s="44"/>
-      <c r="D286" s="44"/>
+      <c r="C286" s="22"/>
+      <c r="D286" s="22"/>
       <c r="E286" s="7"/>
       <c r="F286" s="9"/>
       <c r="G286" s="9"/>
@@ -8843,11 +9013,11 @@
       <c r="Y286" s="9"/>
       <c r="Z286" s="9"/>
     </row>
-    <row r="287">
-      <c r="A287" s="5"/>
+    <row r="287" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A287" s="4"/>
       <c r="B287" s="9"/>
-      <c r="C287" s="44"/>
-      <c r="D287" s="44"/>
+      <c r="C287" s="22"/>
+      <c r="D287" s="22"/>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="9"/>
@@ -8871,13 +9041,13 @@
       <c r="Y287" s="9"/>
       <c r="Z287" s="9"/>
     </row>
-    <row r="288">
-      <c r="A288" s="5"/>
+    <row r="288" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A288" s="4"/>
       <c r="B288" s="9"/>
-      <c r="C288" s="44"/>
-      <c r="D288" s="44"/>
+      <c r="C288" s="22"/>
+      <c r="D288" s="22"/>
       <c r="E288" s="7"/>
-      <c r="F288" s="67"/>
+      <c r="F288" s="32"/>
       <c r="G288" s="9"/>
       <c r="H288" s="9"/>
       <c r="I288" s="9"/>
@@ -8899,13 +9069,13 @@
       <c r="Y288" s="9"/>
       <c r="Z288" s="9"/>
     </row>
-    <row r="289">
-      <c r="A289" s="5"/>
+    <row r="289" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A289" s="4"/>
       <c r="B289" s="9"/>
-      <c r="C289" s="44"/>
-      <c r="D289" s="44"/>
+      <c r="C289" s="22"/>
+      <c r="D289" s="22"/>
       <c r="E289" s="7"/>
-      <c r="F289" s="67"/>
+      <c r="F289" s="32"/>
       <c r="G289" s="9"/>
       <c r="H289" s="9"/>
       <c r="I289" s="9"/>
@@ -8927,13 +9097,13 @@
       <c r="Y289" s="9"/>
       <c r="Z289" s="9"/>
     </row>
-    <row r="290">
-      <c r="A290" s="5"/>
+    <row r="290" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A290" s="4"/>
       <c r="B290" s="9"/>
-      <c r="C290" s="44"/>
-      <c r="D290" s="44"/>
+      <c r="C290" s="22"/>
+      <c r="D290" s="22"/>
       <c r="E290" s="7"/>
-      <c r="F290" s="67"/>
+      <c r="F290" s="32"/>
       <c r="G290" s="9"/>
       <c r="H290" s="9"/>
       <c r="I290" s="9"/>
@@ -8955,13 +9125,13 @@
       <c r="Y290" s="9"/>
       <c r="Z290" s="9"/>
     </row>
-    <row r="291">
-      <c r="A291" s="5"/>
+    <row r="291" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A291" s="4"/>
       <c r="B291" s="9"/>
-      <c r="C291" s="44"/>
-      <c r="D291" s="44"/>
+      <c r="C291" s="22"/>
+      <c r="D291" s="22"/>
       <c r="E291" s="7"/>
-      <c r="F291" s="67"/>
+      <c r="F291" s="32"/>
       <c r="G291" s="9"/>
       <c r="H291" s="9"/>
       <c r="I291" s="9"/>
@@ -8983,11 +9153,11 @@
       <c r="Y291" s="9"/>
       <c r="Z291" s="9"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
-      <c r="C292" s="44"/>
-      <c r="D292" s="44"/>
+      <c r="C292" s="22"/>
+      <c r="D292" s="22"/>
       <c r="E292" s="7"/>
       <c r="F292" s="9"/>
       <c r="G292" s="9"/>
@@ -9011,11 +9181,11 @@
       <c r="Y292" s="9"/>
       <c r="Z292" s="9"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
-      <c r="C293" s="44"/>
-      <c r="D293" s="44"/>
+      <c r="C293" s="22"/>
+      <c r="D293" s="22"/>
       <c r="E293" s="7"/>
       <c r="F293" s="9"/>
       <c r="G293" s="9"/>
@@ -9039,11 +9209,11 @@
       <c r="Y293" s="9"/>
       <c r="Z293" s="9"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
-      <c r="C294" s="44"/>
-      <c r="D294" s="44"/>
+      <c r="C294" s="22"/>
+      <c r="D294" s="22"/>
       <c r="E294" s="7"/>
       <c r="F294" s="9"/>
       <c r="G294" s="9"/>
@@ -9067,11 +9237,11 @@
       <c r="Y294" s="9"/>
       <c r="Z294" s="9"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
-      <c r="C295" s="44"/>
-      <c r="D295" s="44"/>
+      <c r="C295" s="22"/>
+      <c r="D295" s="22"/>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
       <c r="G295" s="9"/>
@@ -9095,13 +9265,13 @@
       <c r="Y295" s="9"/>
       <c r="Z295" s="9"/>
     </row>
-    <row r="296">
-      <c r="A296" s="5"/>
+    <row r="296" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A296" s="4"/>
       <c r="B296" s="9"/>
-      <c r="C296" s="44"/>
-      <c r="D296" s="44"/>
+      <c r="C296" s="22"/>
+      <c r="D296" s="22"/>
       <c r="E296" s="7"/>
-      <c r="F296" s="67"/>
+      <c r="F296" s="32"/>
       <c r="G296" s="9"/>
       <c r="H296" s="9"/>
       <c r="I296" s="9"/>
@@ -9123,13 +9293,13 @@
       <c r="Y296" s="9"/>
       <c r="Z296" s="9"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
-      <c r="C297" s="44"/>
-      <c r="D297" s="44"/>
+      <c r="C297" s="22"/>
+      <c r="D297" s="22"/>
       <c r="E297" s="7"/>
-      <c r="F297" s="67"/>
+      <c r="F297" s="32"/>
       <c r="G297" s="9"/>
       <c r="H297" s="9"/>
       <c r="I297" s="9"/>
@@ -9151,13 +9321,13 @@
       <c r="Y297" s="9"/>
       <c r="Z297" s="9"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
-      <c r="C298" s="44"/>
-      <c r="D298" s="44"/>
+      <c r="C298" s="22"/>
+      <c r="D298" s="22"/>
       <c r="E298" s="7"/>
-      <c r="F298" s="80"/>
+      <c r="F298" s="45"/>
       <c r="G298" s="9"/>
       <c r="H298" s="9"/>
       <c r="I298" s="9"/>
@@ -9179,13 +9349,13 @@
       <c r="Y298" s="9"/>
       <c r="Z298" s="9"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
-      <c r="C299" s="44"/>
-      <c r="D299" s="44"/>
+      <c r="C299" s="22"/>
+      <c r="D299" s="22"/>
       <c r="E299" s="7"/>
-      <c r="F299" s="67"/>
+      <c r="F299" s="32"/>
       <c r="G299" s="9"/>
       <c r="H299" s="9"/>
       <c r="I299" s="9"/>
@@ -9207,11 +9377,11 @@
       <c r="Y299" s="9"/>
       <c r="Z299" s="9"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
-      <c r="C300" s="44"/>
-      <c r="D300" s="44"/>
+      <c r="C300" s="22"/>
+      <c r="D300" s="22"/>
       <c r="E300" s="7"/>
       <c r="F300" s="9"/>
       <c r="G300" s="9"/>
@@ -9235,11 +9405,11 @@
       <c r="Y300" s="9"/>
       <c r="Z300" s="9"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
-      <c r="C301" s="44"/>
-      <c r="D301" s="44"/>
+      <c r="C301" s="22"/>
+      <c r="D301" s="22"/>
       <c r="E301" s="7"/>
       <c r="F301" s="9"/>
       <c r="G301" s="9"/>
@@ -9263,11 +9433,11 @@
       <c r="Y301" s="9"/>
       <c r="Z301" s="9"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
-      <c r="C302" s="44"/>
-      <c r="D302" s="44"/>
+      <c r="C302" s="22"/>
+      <c r="D302" s="22"/>
       <c r="E302" s="7"/>
       <c r="F302" s="9"/>
       <c r="G302" s="9"/>
@@ -9291,13 +9461,13 @@
       <c r="Y302" s="9"/>
       <c r="Z302" s="9"/>
     </row>
-    <row r="303">
-      <c r="A303" s="5"/>
+    <row r="303" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A303" s="4"/>
       <c r="B303" s="9"/>
-      <c r="C303" s="44"/>
-      <c r="D303" s="44"/>
+      <c r="C303" s="22"/>
+      <c r="D303" s="22"/>
       <c r="E303" s="9"/>
-      <c r="F303" s="45"/>
+      <c r="F303" s="23"/>
       <c r="G303" s="9"/>
       <c r="H303" s="9"/>
       <c r="I303" s="9"/>
@@ -9319,13 +9489,13 @@
       <c r="Y303" s="9"/>
       <c r="Z303" s="9"/>
     </row>
-    <row r="304">
-      <c r="A304" s="5"/>
+    <row r="304" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A304" s="4"/>
       <c r="B304" s="9"/>
-      <c r="C304" s="44"/>
-      <c r="D304" s="44"/>
+      <c r="C304" s="22"/>
+      <c r="D304" s="22"/>
       <c r="E304" s="7"/>
-      <c r="F304" s="45"/>
+      <c r="F304" s="23"/>
       <c r="G304" s="9"/>
       <c r="H304" s="9"/>
       <c r="I304" s="9"/>
@@ -9347,13 +9517,13 @@
       <c r="Y304" s="9"/>
       <c r="Z304" s="9"/>
     </row>
-    <row r="305">
-      <c r="A305" s="5"/>
+    <row r="305" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A305" s="4"/>
       <c r="B305" s="9"/>
-      <c r="C305" s="44"/>
-      <c r="D305" s="44"/>
+      <c r="C305" s="22"/>
+      <c r="D305" s="22"/>
       <c r="E305" s="7"/>
-      <c r="F305" s="45"/>
+      <c r="F305" s="23"/>
       <c r="G305" s="9"/>
       <c r="H305" s="9"/>
       <c r="I305" s="9"/>
@@ -9375,13 +9545,13 @@
       <c r="Y305" s="9"/>
       <c r="Z305" s="9"/>
     </row>
-    <row r="306">
-      <c r="A306" s="5"/>
+    <row r="306" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A306" s="4"/>
       <c r="B306" s="9"/>
-      <c r="C306" s="44"/>
-      <c r="D306" s="44"/>
+      <c r="C306" s="22"/>
+      <c r="D306" s="22"/>
       <c r="E306" s="7"/>
-      <c r="F306" s="45"/>
+      <c r="F306" s="23"/>
       <c r="G306" s="9"/>
       <c r="H306" s="9"/>
       <c r="I306" s="9"/>
@@ -9403,13 +9573,13 @@
       <c r="Y306" s="9"/>
       <c r="Z306" s="9"/>
     </row>
-    <row r="307">
-      <c r="A307" s="5"/>
+    <row r="307" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A307" s="4"/>
       <c r="B307" s="9"/>
-      <c r="C307" s="44"/>
-      <c r="D307" s="44"/>
+      <c r="C307" s="22"/>
+      <c r="D307" s="22"/>
       <c r="E307" s="7"/>
-      <c r="F307" s="45"/>
+      <c r="F307" s="23"/>
       <c r="G307" s="9"/>
       <c r="H307" s="9"/>
       <c r="I307" s="9"/>
@@ -9431,13 +9601,13 @@
       <c r="Y307" s="9"/>
       <c r="Z307" s="9"/>
     </row>
-    <row r="308">
-      <c r="A308" s="5"/>
+    <row r="308" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A308" s="4"/>
       <c r="B308" s="9"/>
-      <c r="C308" s="44"/>
-      <c r="D308" s="44"/>
+      <c r="C308" s="22"/>
+      <c r="D308" s="22"/>
       <c r="E308" s="7"/>
-      <c r="F308" s="45"/>
+      <c r="F308" s="23"/>
       <c r="G308" s="9"/>
       <c r="H308" s="9"/>
       <c r="I308" s="9"/>
@@ -9459,13 +9629,13 @@
       <c r="Y308" s="9"/>
       <c r="Z308" s="9"/>
     </row>
-    <row r="309">
-      <c r="A309" s="5"/>
+    <row r="309" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A309" s="4"/>
       <c r="B309" s="9"/>
-      <c r="C309" s="44"/>
-      <c r="D309" s="44"/>
+      <c r="C309" s="22"/>
+      <c r="D309" s="22"/>
       <c r="E309" s="7"/>
-      <c r="F309" s="45"/>
+      <c r="F309" s="23"/>
       <c r="G309" s="9"/>
       <c r="H309" s="9"/>
       <c r="I309" s="9"/>
@@ -9487,13 +9657,13 @@
       <c r="Y309" s="9"/>
       <c r="Z309" s="9"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
-      <c r="C310" s="44"/>
-      <c r="D310" s="44"/>
+      <c r="C310" s="22"/>
+      <c r="D310" s="22"/>
       <c r="E310" s="7"/>
-      <c r="F310" s="45"/>
+      <c r="F310" s="23"/>
       <c r="G310" s="9"/>
       <c r="H310" s="9"/>
       <c r="I310" s="9"/>
@@ -9515,13 +9685,13 @@
       <c r="Y310" s="9"/>
       <c r="Z310" s="9"/>
     </row>
-    <row r="311">
-      <c r="A311" s="5"/>
+    <row r="311" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A311" s="4"/>
       <c r="B311" s="9"/>
-      <c r="C311" s="44"/>
-      <c r="D311" s="44"/>
+      <c r="C311" s="22"/>
+      <c r="D311" s="22"/>
       <c r="E311" s="9"/>
-      <c r="F311" s="45"/>
+      <c r="F311" s="23"/>
       <c r="G311" s="9"/>
       <c r="H311" s="9"/>
       <c r="I311" s="9"/>
@@ -9544,6 +9714,6 @@
       <c r="Z311" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>